--- a/demodata/ZRFI005.XLSX
+++ b/demodata/ZRFI005.XLSX
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$102</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="273">
   <si>
     <t>1000</t>
   </si>
@@ -399,6 +399,18 @@
     <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG THIÊN HÀ PHÁT</t>
   </si>
   <si>
+    <t>10110766</t>
+  </si>
+  <si>
+    <t>PHẠM MINH SĨ</t>
+  </si>
+  <si>
+    <t>1200000854</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRẦN LIÊN HƯNG</t>
+  </si>
+  <si>
     <t>10810584</t>
   </si>
   <si>
@@ -486,18 +498,18 @@
     <t>CÔNG TY CỔ PHẦN ĐÔNG NGÔ MANUFACTURER</t>
   </si>
   <si>
+    <t>1200001029</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
+  </si>
+  <si>
     <t>10400773</t>
   </si>
   <si>
     <t>VŨ ANH HAI</t>
   </si>
   <si>
-    <t>1200001029</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
-  </si>
-  <si>
     <t>1200001030</t>
   </si>
   <si>
@@ -567,12 +579,6 @@
     <t>CÔNG TY TNHH SX TM QUANG TRUNG NGUYÊN</t>
   </si>
   <si>
-    <t>10110766</t>
-  </si>
-  <si>
-    <t>PHẠM MINH SĨ</t>
-  </si>
-  <si>
     <t>1200001079</t>
   </si>
   <si>
@@ -597,6 +603,12 @@
     <t>CÔNG TY TNHH TM SẢN XUẤT XNK NỘI THẤT MCS</t>
   </si>
   <si>
+    <t>1200001104</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ARTEX ĐỒNG THÁP</t>
+  </si>
+  <si>
     <t>1200001109</t>
   </si>
   <si>
@@ -624,7 +636,7 @@
     <t>1200001118</t>
   </si>
   <si>
-    <t>Hoàng Sỹ Tiến</t>
+    <t>Pham Van Vuong</t>
   </si>
   <si>
     <t>1200001119</t>
@@ -663,57 +675,51 @@
     <t>VÕ CÔNG QUANG</t>
   </si>
   <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1300000016</t>
+  </si>
+  <si>
+    <t>QUALITY IMAGE SDN BHD</t>
+  </si>
+  <si>
+    <t>1200000856</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
+  </si>
+  <si>
+    <t>1200000974</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CAO VÕ</t>
+  </si>
+  <si>
+    <t>1200001004</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
+  </si>
+  <si>
+    <t>1200000460</t>
+  </si>
+  <si>
+    <t>LÊ HỒNG TRƯỜNG</t>
+  </si>
+  <si>
+    <t>1200000820</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
+  </si>
+  <si>
     <t>1200001144</t>
   </si>
   <si>
     <t>HỘ KINH DOANH BUÔN LÊ COFFEE</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>1300000016</t>
-  </si>
-  <si>
-    <t>QUALITY IMAGE SDN BHD</t>
-  </si>
-  <si>
-    <t>1200000854</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TRẦN LIÊN HƯNG</t>
-  </si>
-  <si>
-    <t>1200000856</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
-  </si>
-  <si>
-    <t>1200000974</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CAO VÕ</t>
-  </si>
-  <si>
-    <t>1200001004</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
-  </si>
-  <si>
-    <t>1200000460</t>
-  </si>
-  <si>
-    <t>LÊ HỒNG TRƯỜNG</t>
-  </si>
-  <si>
-    <t>1200000820</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
-  </si>
-  <si>
     <t>1200000959</t>
   </si>
   <si>
@@ -748,6 +754,18 @@
   </si>
   <si>
     <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI AN PHỤNG</t>
+  </si>
+  <si>
+    <t>1200001059</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY DỰNG - THƯƠNG MẠI - NỘI THẤT HH</t>
+  </si>
+  <si>
+    <t>1200001136</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH NỘI THẤT TÂM CASA</t>
   </si>
   <si>
     <t>Company Code</t>
@@ -1169,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1197,86 +1215,85 @@
     <col min="19" max="20" width="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1415,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="2">
-        <v>0</v>
+        <v>361088859</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -1430,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>0</v>
+        <v>361088859</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1723,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>0</v>
+        <v>106074058</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1738,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>0</v>
+        <v>106074058</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -2416,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>0</v>
+        <v>195415200</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -2431,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="2">
-        <v>0</v>
+        <v>195415200</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -3621,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="K32" s="2">
-        <v>45297965</v>
+        <v>70892323</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -3639,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>45297965</v>
+        <v>70892323</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -3722,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>0</v>
+        <v>6787145</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>43212855</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -3740,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>0</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4527,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
         <v>125</v>
@@ -4545,25 +4562,25 @@
         <v>9</v>
       </c>
       <c r="K44" s="2">
-        <v>8862904</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>-458131</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>0</v>
+        <v>-437763</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>-563094</v>
       </c>
       <c r="Q44" s="2">
-        <v>8404773</v>
+        <v>-1000857</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
@@ -4604,31 +4621,31 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
         <v>9</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>8862904</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>-458131</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -4637,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>25628426</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2">
-        <v>25628426</v>
+        <v>8404773</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -4684,16 +4701,16 @@
         <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
         <v>9</v>
@@ -4705,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>-840131</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -4714,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>25628426</v>
       </c>
       <c r="Q46" s="2">
-        <v>-840131</v>
+        <v>25628426</v>
       </c>
       <c r="R46" s="2">
         <v>0</v>
@@ -4758,43 +4775,43 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J47" t="s">
         <v>9</v>
       </c>
       <c r="K47" s="2">
-        <v>8553717</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>38598624</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0</v>
+        <v>-840131</v>
       </c>
       <c r="N47" s="2">
-        <v>5064037</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>42755331</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
       </c>
       <c r="Q47" s="2">
-        <v>94971709</v>
+        <v>-840131</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
@@ -4835,43 +4852,43 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J48" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="2">
-        <v>23064694</v>
+        <v>8553717</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>38598624</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>5064037</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
+        <v>42755331</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <v>23064694</v>
+        <v>94971709</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -4906,31 +4923,31 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="H49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J49" t="s">
         <v>9</v>
       </c>
       <c r="K49" s="2">
-        <v>54874800</v>
+        <v>23064694</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
@@ -4948,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>54874800</v>
+        <v>23064694</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -4983,34 +5000,34 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J50" t="s">
         <v>9</v>
       </c>
       <c r="K50" s="2">
-        <v>304812288</v>
+        <v>54874800</v>
       </c>
       <c r="L50" s="2">
-        <v>143665920</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -5025,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <v>448478208</v>
+        <v>54874800</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
@@ -5060,34 +5077,34 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J51" t="s">
         <v>9</v>
       </c>
       <c r="K51" s="2">
-        <v>31110202</v>
+        <v>304812288</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
+        <v>143665920</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -5102,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>31110202</v>
+        <v>448478208</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5146,22 +5163,22 @@
         <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="H52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J52" t="s">
         <v>9</v>
       </c>
       <c r="K52" s="2">
-        <v>3880646</v>
+        <v>31110202</v>
       </c>
       <c r="L52" s="2">
         <v>0</v>
@@ -5179,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>3880646</v>
+        <v>31110202</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -5214,31 +5231,31 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J53" t="s">
         <v>9</v>
       </c>
       <c r="K53" s="2">
-        <v>277171200</v>
+        <v>3880646</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
@@ -5256,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>277171200</v>
+        <v>3880646</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -5291,37 +5308,37 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J54" t="s">
         <v>9</v>
       </c>
       <c r="K54" s="2">
-        <v>27111603</v>
+        <v>277171200</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -5333,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <v>80991069</v>
+        <v>277171200</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -5345,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
       <c r="V54" s="2">
         <v>0</v>
@@ -5357,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -5368,37 +5385,37 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="H55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J55" t="s">
         <v>9</v>
       </c>
       <c r="K55" s="2">
-        <v>50388480</v>
+        <v>27111603</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -5410,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="2">
-        <v>50388480</v>
+        <v>80991069</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
@@ -5422,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
       <c r="V55" s="2">
         <v>0</v>
@@ -5434,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -5451,28 +5468,28 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J56" t="s">
         <v>9</v>
       </c>
       <c r="K56" s="2">
-        <v>103815691</v>
+        <v>50388480</v>
       </c>
       <c r="L56" s="2">
-        <v>103753094</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -5487,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <v>207568785</v>
+        <v>50388480</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
@@ -5522,19 +5539,19 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s">
         <v>156</v>
@@ -5546,10 +5563,10 @@
         <v>9</v>
       </c>
       <c r="K57" s="2">
-        <v>0</v>
+        <v>103815691</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
+        <v>103753094</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -5561,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <v>38518911</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="2">
-        <v>38518911</v>
+        <v>207568785</v>
       </c>
       <c r="R57" s="2">
         <v>0</v>
@@ -5608,16 +5625,16 @@
         <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I58" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J58" t="s">
         <v>9</v>
@@ -5682,13 +5699,13 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="H59" t="s">
         <v>158</v>
@@ -5703,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <v>869498</v>
+        <v>0</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
@@ -5715,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>0</v>
+        <v>38518911</v>
       </c>
       <c r="Q59" s="2">
-        <v>869498</v>
+        <v>38518911</v>
       </c>
       <c r="R59" s="2">
         <v>0</v>
@@ -5739,10 +5756,10 @@
         <v>0</v>
       </c>
       <c r="X59" s="2">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="Y59" s="2">
-        <v>0</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -5753,25 +5770,25 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J60" t="s">
         <v>9</v>
@@ -5780,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <v>150120</v>
+        <v>869498</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
@@ -5795,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <v>150120</v>
+        <v>869498</v>
       </c>
       <c r="R60" s="2">
         <v>0</v>
@@ -5839,25 +5856,25 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="G61" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J61" t="s">
         <v>9</v>
       </c>
       <c r="K61" s="2">
-        <v>394925760</v>
+        <v>0</v>
       </c>
       <c r="L61" s="2">
-        <v>95283648</v>
+        <v>150120</v>
       </c>
       <c r="M61" s="2">
         <v>0</v>
@@ -5872,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="2">
-        <v>490209408</v>
+        <v>150120</v>
       </c>
       <c r="R61" s="2">
         <v>0</v>
@@ -5907,34 +5924,34 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I62" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J62" t="s">
         <v>9</v>
       </c>
       <c r="K62" s="2">
-        <v>15087916</v>
+        <v>394925760</v>
       </c>
       <c r="L62" s="2">
-        <v>14786158</v>
+        <v>95283648</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -5949,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <v>29874074</v>
+        <v>490209408</v>
       </c>
       <c r="R62" s="2">
         <v>0</v>
@@ -5984,34 +6001,34 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="H63" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I63" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J63" t="s">
         <v>9</v>
       </c>
       <c r="K63" s="2">
-        <v>354240</v>
+        <v>15087916</v>
       </c>
       <c r="L63" s="2">
-        <v>0</v>
+        <v>14786158</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -6026,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="2">
-        <v>354240</v>
+        <v>29874074</v>
       </c>
       <c r="R63" s="2">
         <v>0</v>
@@ -6070,22 +6087,22 @@
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J64" t="s">
         <v>9</v>
       </c>
       <c r="K64" s="2">
-        <v>86512752</v>
+        <v>354240</v>
       </c>
       <c r="L64" s="2">
         <v>0</v>
@@ -6103,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="2">
-        <v>86512752</v>
+        <v>354240</v>
       </c>
       <c r="R64" s="2">
         <v>0</v>
@@ -6147,25 +6164,25 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J65" t="s">
         <v>9</v>
       </c>
       <c r="K65" s="2">
-        <v>245569000</v>
+        <v>86512752</v>
       </c>
       <c r="L65" s="2">
-        <v>214508200</v>
+        <v>0</v>
       </c>
       <c r="M65" s="2">
         <v>0</v>
@@ -6180,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <v>460077200</v>
+        <v>86512752</v>
       </c>
       <c r="R65" s="2">
         <v>0</v>
@@ -6224,10 +6241,10 @@
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
         <v>171</v>
@@ -6239,10 +6256,10 @@
         <v>9</v>
       </c>
       <c r="K66" s="2">
-        <v>35977392</v>
+        <v>245569000</v>
       </c>
       <c r="L66" s="2">
-        <v>45515952</v>
+        <v>214508200</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
@@ -6257,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="2">
-        <v>81493344</v>
+        <v>460077200</v>
       </c>
       <c r="R66" s="2">
         <v>0</v>
@@ -6301,25 +6318,25 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="H67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J67" t="s">
         <v>9</v>
       </c>
       <c r="K67" s="2">
-        <v>708209568</v>
+        <v>35977392</v>
       </c>
       <c r="L67" s="2">
-        <v>0</v>
+        <v>45515952</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
@@ -6334,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="2">
-        <v>708209568</v>
+        <v>81493344</v>
       </c>
       <c r="R67" s="2">
         <v>0</v>
@@ -6369,34 +6386,34 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J68" t="s">
         <v>9</v>
       </c>
       <c r="K68" s="2">
-        <v>10235715</v>
+        <v>708209568</v>
       </c>
       <c r="L68" s="2">
-        <v>8519043</v>
+        <v>0</v>
       </c>
       <c r="M68" s="2">
         <v>0</v>
@@ -6405,19 +6422,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>44470499</v>
+        <v>0</v>
       </c>
       <c r="P68" s="2">
         <v>0</v>
       </c>
       <c r="Q68" s="2">
-        <v>63225257</v>
+        <v>708209568</v>
       </c>
       <c r="R68" s="2">
         <v>0</v>
       </c>
       <c r="S68" s="2">
-        <v>0</v>
+        <v>102118320</v>
       </c>
       <c r="T68" s="2">
         <v>0</v>
@@ -6435,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="2">
-        <v>0</v>
+        <v>102118320</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
@@ -6455,25 +6472,25 @@
         <v>101</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="H69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
       </c>
       <c r="K69" s="2">
-        <v>20741602</v>
+        <v>10235715</v>
       </c>
       <c r="L69" s="2">
-        <v>0</v>
+        <v>8519043</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
@@ -6482,19 +6499,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="2">
-        <v>0</v>
+        <v>44470499</v>
       </c>
       <c r="P69" s="2">
         <v>0</v>
       </c>
       <c r="Q69" s="2">
-        <v>20741602</v>
+        <v>63225257</v>
       </c>
       <c r="R69" s="2">
         <v>0</v>
       </c>
       <c r="S69" s="2">
-        <v>3731522</v>
+        <v>0</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -6506,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="W69" s="2">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="X69" s="2">
         <v>0</v>
       </c>
       <c r="Y69" s="2">
-        <v>3731522</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -6523,37 +6540,37 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J70" t="s">
         <v>9</v>
       </c>
       <c r="K70" s="2">
-        <v>0</v>
+        <v>20741602</v>
       </c>
       <c r="L70" s="2">
         <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>6301584</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2">
         <v>0</v>
@@ -6565,19 +6582,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="2">
-        <v>6301584</v>
+        <v>20741602</v>
       </c>
       <c r="R70" s="2">
         <v>0</v>
       </c>
       <c r="S70" s="2">
-        <v>0</v>
+        <v>3731522</v>
       </c>
       <c r="T70" s="2">
         <v>0</v>
       </c>
       <c r="U70" s="2">
-        <v>6301584</v>
+        <v>0</v>
       </c>
       <c r="V70" s="2">
         <v>0</v>
@@ -6589,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="2">
-        <v>6301584</v>
+        <v>3731522</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -6600,19 +6617,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
         <v>183</v>
@@ -6624,13 +6641,13 @@
         <v>9</v>
       </c>
       <c r="K71" s="2">
-        <v>5581440</v>
+        <v>0</v>
       </c>
       <c r="L71" s="2">
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>0</v>
+        <v>6301584</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -6642,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <v>5581440</v>
+        <v>6301584</v>
       </c>
       <c r="R71" s="2">
         <v>0</v>
@@ -6654,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="2">
-        <v>0</v>
+        <v>6301584</v>
       </c>
       <c r="V71" s="2">
         <v>0</v>
@@ -6666,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="2">
-        <v>0</v>
+        <v>6301584</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -6683,13 +6700,13 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F72" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="G72" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="H72" t="s">
         <v>185</v>
@@ -6701,10 +6718,10 @@
         <v>9</v>
       </c>
       <c r="K72" s="2">
-        <v>8293106</v>
+        <v>5581440</v>
       </c>
       <c r="L72" s="2">
-        <v>8973326</v>
+        <v>0</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
@@ -6719,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="Q72" s="2">
-        <v>17266432</v>
+        <v>5581440</v>
       </c>
       <c r="R72" s="2">
         <v>0</v>
@@ -6760,7 +6777,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F73" t="s">
         <v>125</v>
@@ -6778,13 +6795,13 @@
         <v>9</v>
       </c>
       <c r="K73" s="2">
-        <v>0</v>
+        <v>8293106</v>
       </c>
       <c r="L73" s="2">
-        <v>0</v>
+        <v>8973326</v>
       </c>
       <c r="M73" s="2">
-        <v>15582617</v>
+        <v>0</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
@@ -6793,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="P73" s="2">
-        <v>6181387</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="2">
-        <v>21764004</v>
+        <v>17266432</v>
       </c>
       <c r="R73" s="2">
         <v>0</v>
@@ -6831,19 +6848,19 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="H74" t="s">
         <v>189</v>
@@ -6855,13 +6872,13 @@
         <v>9</v>
       </c>
       <c r="K74" s="2">
-        <v>227578032</v>
+        <v>0</v>
       </c>
       <c r="L74" s="2">
-        <v>43138224</v>
+        <v>0</v>
       </c>
       <c r="M74" s="2">
-        <v>0</v>
+        <v>15582617</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -6870,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="2">
-        <v>0</v>
+        <v>6181387</v>
       </c>
       <c r="Q74" s="2">
-        <v>270716256</v>
+        <v>21764004</v>
       </c>
       <c r="R74" s="2">
         <v>0</v>
@@ -6908,19 +6925,19 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="H75" t="s">
         <v>191</v>
@@ -6932,13 +6949,13 @@
         <v>9</v>
       </c>
       <c r="K75" s="2">
-        <v>45331549</v>
+        <v>227578032</v>
       </c>
       <c r="L75" s="2">
-        <v>0</v>
+        <v>43138224</v>
       </c>
       <c r="M75" s="2">
-        <v>62387128</v>
+        <v>0</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -6950,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="2">
-        <v>107718677</v>
+        <v>270716256</v>
       </c>
       <c r="R75" s="2">
         <v>0</v>
@@ -6985,19 +7002,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="H76" t="s">
         <v>193</v>
@@ -7009,7 +7026,7 @@
         <v>9</v>
       </c>
       <c r="K76" s="2">
-        <v>92646274</v>
+        <v>89640000</v>
       </c>
       <c r="L76" s="2">
         <v>0</v>
@@ -7027,13 +7044,13 @@
         <v>0</v>
       </c>
       <c r="Q76" s="2">
-        <v>92646274</v>
+        <v>89640000</v>
       </c>
       <c r="R76" s="2">
         <v>0</v>
       </c>
       <c r="S76" s="2">
-        <v>0</v>
+        <v>24900000</v>
       </c>
       <c r="T76" s="2">
         <v>0</v>
@@ -7051,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="2">
-        <v>0</v>
+        <v>24900000</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -7062,37 +7079,37 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" t="s">
         <v>195</v>
       </c>
-      <c r="F77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>196</v>
       </c>
-      <c r="I77" t="s">
-        <v>197</v>
-      </c>
       <c r="J77" t="s">
         <v>9</v>
       </c>
       <c r="K77" s="2">
-        <v>75600000</v>
+        <v>45331549</v>
       </c>
       <c r="L77" s="2">
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <v>0</v>
+        <v>62387128</v>
       </c>
       <c r="N77" s="2">
         <v>0</v>
@@ -7104,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="2">
-        <v>75600000</v>
+        <v>107718677</v>
       </c>
       <c r="R77" s="2">
         <v>0</v>
@@ -7145,28 +7162,28 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" t="s">
+        <v>106</v>
+      </c>
+      <c r="G78" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" t="s">
+        <v>197</v>
+      </c>
+      <c r="I78" t="s">
         <v>198</v>
       </c>
-      <c r="F78" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" t="s">
-        <v>126</v>
-      </c>
-      <c r="H78" t="s">
-        <v>199</v>
-      </c>
-      <c r="I78" t="s">
-        <v>200</v>
-      </c>
       <c r="J78" t="s">
         <v>9</v>
       </c>
       <c r="K78" s="2">
-        <v>1446702</v>
+        <v>92646274</v>
       </c>
       <c r="L78" s="2">
-        <v>24638</v>
+        <v>0</v>
       </c>
       <c r="M78" s="2">
         <v>0</v>
@@ -7181,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2">
-        <v>1471340</v>
+        <v>92646274</v>
       </c>
       <c r="R78" s="2">
-        <v>71362</v>
+        <v>0</v>
       </c>
       <c r="S78" s="2">
-        <v>641543</v>
+        <v>0</v>
       </c>
       <c r="T78" s="2">
         <v>0</v>
@@ -7205,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="2">
-        <v>712905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
@@ -7216,31 +7233,31 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s">
+        <v>200</v>
+      </c>
+      <c r="I79" t="s">
         <v>201</v>
       </c>
-      <c r="I79" t="s">
-        <v>202</v>
-      </c>
       <c r="J79" t="s">
         <v>9</v>
       </c>
       <c r="K79" s="2">
-        <v>11840521</v>
+        <v>75600000</v>
       </c>
       <c r="L79" s="2">
         <v>0</v>
@@ -7258,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2">
-        <v>11840521</v>
+        <v>75600000</v>
       </c>
       <c r="R79" s="2">
         <v>0</v>
@@ -7299,13 +7316,13 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G80" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H80" t="s">
         <v>203</v>
@@ -7317,10 +7334,10 @@
         <v>9</v>
       </c>
       <c r="K80" s="2">
-        <v>6514266</v>
+        <v>1446702</v>
       </c>
       <c r="L80" s="2">
-        <v>0</v>
+        <v>24638</v>
       </c>
       <c r="M80" s="2">
         <v>0</v>
@@ -7335,13 +7352,13 @@
         <v>0</v>
       </c>
       <c r="Q80" s="2">
-        <v>6514266</v>
+        <v>1471340</v>
       </c>
       <c r="R80" s="2">
-        <v>0</v>
+        <v>71362</v>
       </c>
       <c r="S80" s="2">
-        <v>0</v>
+        <v>641543</v>
       </c>
       <c r="T80" s="2">
         <v>0</v>
@@ -7359,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="2">
-        <v>0</v>
+        <v>712905</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -7370,19 +7387,19 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="H81" t="s">
         <v>205</v>
@@ -7394,10 +7411,10 @@
         <v>9</v>
       </c>
       <c r="K81" s="2">
-        <v>0</v>
+        <v>11840521</v>
       </c>
       <c r="L81" s="2">
-        <v>1287576</v>
+        <v>0</v>
       </c>
       <c r="M81" s="2">
         <v>0</v>
@@ -7412,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="2">
-        <v>1287576</v>
+        <v>11840521</v>
       </c>
       <c r="R81" s="2">
         <v>0</v>
@@ -7447,34 +7464,34 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="H82" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J82" t="s">
         <v>9</v>
       </c>
       <c r="K82" s="2">
-        <v>0</v>
+        <v>6514266</v>
       </c>
       <c r="L82" s="2">
-        <v>8756640</v>
+        <v>0</v>
       </c>
       <c r="M82" s="2">
         <v>0</v>
@@ -7489,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="2">
-        <v>8756640</v>
+        <v>6514266</v>
       </c>
       <c r="R82" s="2">
         <v>0</v>
@@ -7524,34 +7541,34 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J83" t="s">
         <v>9</v>
       </c>
       <c r="K83" s="2">
-        <v>6293384</v>
+        <v>0</v>
       </c>
       <c r="L83" s="2">
-        <v>0</v>
+        <v>1287576</v>
       </c>
       <c r="M83" s="2">
         <v>0</v>
@@ -7566,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="2">
-        <v>6293384</v>
+        <v>1287576</v>
       </c>
       <c r="R83" s="2">
         <v>0</v>
@@ -7610,10 +7627,10 @@
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
         <v>209</v>
@@ -7625,10 +7642,10 @@
         <v>9</v>
       </c>
       <c r="K84" s="2">
-        <v>4968000</v>
+        <v>0</v>
       </c>
       <c r="L84" s="2">
-        <v>0</v>
+        <v>8756640</v>
       </c>
       <c r="M84" s="2">
         <v>0</v>
@@ -7643,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="2">
-        <v>4968000</v>
+        <v>8756640</v>
       </c>
       <c r="R84" s="2">
         <v>0</v>
@@ -7687,10 +7704,10 @@
         <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="H85" t="s">
         <v>211</v>
@@ -7702,10 +7719,10 @@
         <v>9</v>
       </c>
       <c r="K85" s="2">
-        <v>15552000</v>
+        <v>6293384</v>
       </c>
       <c r="L85" s="2">
-        <v>31735068</v>
+        <v>0</v>
       </c>
       <c r="M85" s="2">
         <v>0</v>
@@ -7720,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="2">
-        <v>47287068</v>
+        <v>6293384</v>
       </c>
       <c r="R85" s="2">
         <v>0</v>
@@ -7755,19 +7772,19 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H86" t="s">
         <v>213</v>
@@ -7779,7 +7796,7 @@
         <v>9</v>
       </c>
       <c r="K86" s="2">
-        <v>43365268</v>
+        <v>4968000</v>
       </c>
       <c r="L86" s="2">
         <v>0</v>
@@ -7797,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="Q86" s="2">
-        <v>43365268</v>
+        <v>4968000</v>
       </c>
       <c r="R86" s="2">
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <v>21382589</v>
+        <v>0</v>
       </c>
       <c r="T86" s="2">
         <v>0</v>
@@ -7821,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="2">
-        <v>21382589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -7832,34 +7849,34 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" t="s">
+        <v>130</v>
+      </c>
+      <c r="H87" t="s">
         <v>215</v>
       </c>
-      <c r="F87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s">
-        <v>80</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>216</v>
       </c>
-      <c r="I87" t="s">
-        <v>217</v>
-      </c>
       <c r="J87" t="s">
         <v>9</v>
       </c>
       <c r="K87" s="2">
-        <v>520636036</v>
+        <v>15552000</v>
       </c>
       <c r="L87" s="2">
-        <v>0</v>
+        <v>31735068</v>
       </c>
       <c r="M87" s="2">
         <v>0</v>
@@ -7874,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2">
-        <v>520636036</v>
+        <v>47287068</v>
       </c>
       <c r="R87" s="2">
         <v>0</v>
@@ -7909,19 +7926,19 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="F88" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
         <v>218</v>
@@ -7933,7 +7950,7 @@
         <v>9</v>
       </c>
       <c r="K88" s="2">
-        <v>0</v>
+        <v>520636036</v>
       </c>
       <c r="L88" s="2">
         <v>0</v>
@@ -7945,13 +7962,13 @@
         <v>0</v>
       </c>
       <c r="O88" s="2">
-        <v>-437763</v>
+        <v>0</v>
       </c>
       <c r="P88" s="2">
-        <v>-563094</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="2">
-        <v>-1000857</v>
+        <v>520636036</v>
       </c>
       <c r="R88" s="2">
         <v>0</v>
@@ -7995,10 +8012,10 @@
         <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="G89" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="H89" t="s">
         <v>220</v>
@@ -8072,10 +8089,10 @@
         <v>101</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G90" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H90" t="s">
         <v>222</v>
@@ -8149,10 +8166,10 @@
         <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G91" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H91" t="s">
         <v>224</v>
@@ -8226,10 +8243,10 @@
         <v>96</v>
       </c>
       <c r="F92" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G92" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H92" t="s">
         <v>226</v>
@@ -8371,19 +8388,19 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F94" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="G94" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="H94" t="s">
         <v>230</v>
@@ -8395,7 +8412,7 @@
         <v>9</v>
       </c>
       <c r="K94" s="2">
-        <v>13588560</v>
+        <v>55983640</v>
       </c>
       <c r="L94" s="2">
         <v>0</v>
@@ -8413,13 +8430,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="2">
-        <v>13588560</v>
+        <v>55983640</v>
       </c>
       <c r="R94" s="2">
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <v>13588560</v>
+        <v>56402906</v>
       </c>
       <c r="T94" s="2">
         <v>0</v>
@@ -8437,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="2">
-        <v>13588560</v>
+        <v>56402906</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
@@ -8457,10 +8474,10 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
         <v>232</v>
@@ -8472,7 +8489,7 @@
         <v>9</v>
       </c>
       <c r="K95" s="2">
-        <v>8359200</v>
+        <v>13588560</v>
       </c>
       <c r="L95" s="2">
         <v>0</v>
@@ -8490,13 +8507,13 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2">
-        <v>8359200</v>
+        <v>13588560</v>
       </c>
       <c r="R95" s="2">
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <v>8359200</v>
+        <v>13588560</v>
       </c>
       <c r="T95" s="2">
         <v>0</v>
@@ -8514,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="2">
-        <v>8359200</v>
+        <v>13588560</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -8534,10 +8551,10 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
         <v>234</v>
@@ -8549,7 +8566,7 @@
         <v>9</v>
       </c>
       <c r="K96" s="2">
-        <v>1935360</v>
+        <v>8359200</v>
       </c>
       <c r="L96" s="2">
         <v>0</v>
@@ -8567,13 +8584,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="2">
-        <v>1935360</v>
+        <v>8359200</v>
       </c>
       <c r="R96" s="2">
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <v>1935360</v>
+        <v>8359200</v>
       </c>
       <c r="T96" s="2">
         <v>0</v>
@@ -8591,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="2">
-        <v>1935360</v>
+        <v>8359200</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -8602,19 +8619,19 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
         <v>236</v>
@@ -8626,7 +8643,7 @@
         <v>9</v>
       </c>
       <c r="K97" s="2">
-        <v>7318080</v>
+        <v>1935360</v>
       </c>
       <c r="L97" s="2">
         <v>0</v>
@@ -8644,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="Q97" s="2">
-        <v>7318080</v>
+        <v>1935360</v>
       </c>
       <c r="R97" s="2">
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <v>7318080</v>
+        <v>1935360</v>
       </c>
       <c r="T97" s="2">
         <v>0</v>
@@ -8668,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="2">
-        <v>7318080</v>
+        <v>1935360</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
@@ -8679,19 +8696,19 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="F98" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="H98" t="s">
         <v>238</v>
@@ -8703,7 +8720,7 @@
         <v>9</v>
       </c>
       <c r="K98" s="2">
-        <v>4814059</v>
+        <v>7318080</v>
       </c>
       <c r="L98" s="2">
         <v>0</v>
@@ -8721,13 +8738,13 @@
         <v>0</v>
       </c>
       <c r="Q98" s="2">
-        <v>4814059</v>
+        <v>7318080</v>
       </c>
       <c r="R98" s="2">
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <v>4814059</v>
+        <v>7318080</v>
       </c>
       <c r="T98" s="2">
         <v>0</v>
@@ -8745,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="2">
-        <v>4814059</v>
+        <v>7318080</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -8756,19 +8773,19 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F99" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="H99" t="s">
         <v>240</v>
@@ -8780,53 +8797,284 @@
         <v>9</v>
       </c>
       <c r="K99" s="2">
+        <v>4814059</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>4814059</v>
+      </c>
+      <c r="R99" s="2">
+        <v>0</v>
+      </c>
+      <c r="S99" s="2">
+        <v>4814059</v>
+      </c>
+      <c r="T99" s="2">
+        <v>0</v>
+      </c>
+      <c r="U99" s="2">
+        <v>0</v>
+      </c>
+      <c r="V99" s="2">
+        <v>0</v>
+      </c>
+      <c r="W99" s="2">
+        <v>0</v>
+      </c>
+      <c r="X99" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="2">
+        <v>4814059</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>141</v>
+      </c>
+      <c r="F100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>242</v>
+      </c>
+      <c r="I100" t="s">
+        <v>243</v>
+      </c>
+      <c r="J100" t="s">
+        <v>9</v>
+      </c>
+      <c r="K100" s="2">
         <v>10200000</v>
       </c>
-      <c r="L99" s="2">
-        <v>0</v>
-      </c>
-      <c r="M99" s="2">
-        <v>0</v>
-      </c>
-      <c r="N99" s="2">
-        <v>0</v>
-      </c>
-      <c r="O99" s="2">
-        <v>0</v>
-      </c>
-      <c r="P99" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="2">
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="2">
         <v>10200000</v>
       </c>
-      <c r="R99" s="2">
-        <v>0</v>
-      </c>
-      <c r="S99" s="2">
+      <c r="R100" s="2">
+        <v>0</v>
+      </c>
+      <c r="S100" s="2">
         <v>10200000</v>
       </c>
-      <c r="T99" s="2">
-        <v>0</v>
-      </c>
-      <c r="U99" s="2">
-        <v>0</v>
-      </c>
-      <c r="V99" s="2">
-        <v>0</v>
-      </c>
-      <c r="W99" s="2">
-        <v>0</v>
-      </c>
-      <c r="X99" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="2">
+      <c r="T100" s="2">
+        <v>0</v>
+      </c>
+      <c r="U100" s="2">
+        <v>0</v>
+      </c>
+      <c r="V100" s="2">
+        <v>0</v>
+      </c>
+      <c r="W100" s="2">
+        <v>0</v>
+      </c>
+      <c r="X100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="2">
         <v>10200000</v>
       </c>
     </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G101" t="s">
+        <v>174</v>
+      </c>
+      <c r="H101" t="s">
+        <v>244</v>
+      </c>
+      <c r="I101" t="s">
+        <v>245</v>
+      </c>
+      <c r="J101" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="2">
+        <v>15970608</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <v>0</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>15970608</v>
+      </c>
+      <c r="R101" s="2">
+        <v>0</v>
+      </c>
+      <c r="S101" s="2">
+        <v>15970608</v>
+      </c>
+      <c r="T101" s="2">
+        <v>0</v>
+      </c>
+      <c r="U101" s="2">
+        <v>0</v>
+      </c>
+      <c r="V101" s="2">
+        <v>0</v>
+      </c>
+      <c r="W101" s="2">
+        <v>0</v>
+      </c>
+      <c r="X101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>15970608</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>246</v>
+      </c>
+      <c r="I102" t="s">
+        <v>247</v>
+      </c>
+      <c r="J102" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="2">
+        <v>3361824</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O102" s="2">
+        <v>0</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>3361824</v>
+      </c>
+      <c r="R102" s="2">
+        <v>0</v>
+      </c>
+      <c r="S102" s="2">
+        <v>3361824</v>
+      </c>
+      <c r="T102" s="2">
+        <v>0</v>
+      </c>
+      <c r="U102" s="2">
+        <v>0</v>
+      </c>
+      <c r="V102" s="2">
+        <v>0</v>
+      </c>
+      <c r="W102" s="2">
+        <v>0</v>
+      </c>
+      <c r="X102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>3361824</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y99"/>
+  <autoFilter ref="A1:Y102"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/demodata/ZRFI005.XLSX
+++ b/demodata/ZRFI005.XLSX
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$105</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="277">
   <si>
     <t>1000</t>
   </si>
@@ -261,6 +261,24 @@
     <t>Công Ty TNHH SKS Furniture</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>10810584</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ TUYẾT VÂN</t>
+  </si>
+  <si>
+    <t>1200000460</t>
+  </si>
+  <si>
+    <t>LÊ HỒNG TRƯỜNG</t>
+  </si>
+  <si>
     <t>10888038</t>
   </si>
   <si>
@@ -309,12 +327,6 @@
     <t>CÔNG TY TNHH MILLENNIUM FURNITURE</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>10810655</t>
   </si>
   <si>
@@ -411,10 +423,10 @@
     <t>CÔNG TY TNHH TRẦN LIÊN HƯNG</t>
   </si>
   <si>
-    <t>10810584</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ TUYẾT VÂN</t>
+    <t>1200000856</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
   </si>
   <si>
     <t>1200000857</t>
@@ -474,6 +486,12 @@
     <t>CÔNG TY TNHH SƠN NHÀ VIỆT</t>
   </si>
   <si>
+    <t>1200000935</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN HỆ THỐNG SIÊU THỊ SƠN</t>
+  </si>
+  <si>
     <t>1200000949</t>
   </si>
   <si>
@@ -636,7 +654,7 @@
     <t>1200001118</t>
   </si>
   <si>
-    <t>Pham Van Vuong</t>
+    <t>Trân Trân</t>
   </si>
   <si>
     <t>1200001119</t>
@@ -651,121 +669,115 @@
     <t>CÔNG TY TNHH SƠN TÀI TRÍ</t>
   </si>
   <si>
+    <t>1200001125</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH TRẦN QUÝ</t>
+  </si>
+  <si>
+    <t>1200001133</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIM THƯ FURNITURE</t>
+  </si>
+  <si>
+    <t>1200001143</t>
+  </si>
+  <si>
+    <t>VÕ CÔNG QUANG</t>
+  </si>
+  <si>
+    <t>1200001144</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH BUÔN LÊ COFFEE</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1300000016</t>
+  </si>
+  <si>
+    <t>QUALITY IMAGE SDN BHD</t>
+  </si>
+  <si>
+    <t>1200000974</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CAO VÕ</t>
+  </si>
+  <si>
+    <t>1200001004</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
+  </si>
+  <si>
+    <t>1200000820</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
+  </si>
+  <si>
+    <t>1200000959</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ GỖ HOÀNG PHÁT</t>
+  </si>
+  <si>
+    <t>1200001015</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY DỰNG THƯƠNG MẠI VÀ TRANG TRÍ NỘI THẤT THÀNH PHÁT</t>
+  </si>
+  <si>
+    <t>1200000812</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN NIEMEN TEHTAAT VIỆT NAM</t>
+  </si>
+  <si>
+    <t>1200000470</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH MTV MIRAMAR</t>
+  </si>
+  <si>
+    <t>1200001070</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH QUÂN THÚY</t>
+  </si>
+  <si>
+    <t>1200000861</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI AN PHỤNG</t>
+  </si>
+  <si>
+    <t>1200001059</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY DỰNG - THƯƠNG MẠI - NỘI THẤT HH</t>
+  </si>
+  <si>
+    <t>1200001136</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH NỘI THẤT TÂM CASA</t>
+  </si>
+  <si>
+    <t>1200001138</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN I-STAR ANIMATRONIC</t>
+  </si>
+  <si>
     <t>1200001124</t>
   </si>
   <si>
     <t>CÔNG TY TNHH MTV HOÀNG MINH TUẤN</t>
-  </si>
-  <si>
-    <t>1200001125</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH TRẦN QUÝ</t>
-  </si>
-  <si>
-    <t>1200001138</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN I-STAR ANIMATRONIC</t>
-  </si>
-  <si>
-    <t>1200001143</t>
-  </si>
-  <si>
-    <t>VÕ CÔNG QUANG</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>1300000016</t>
-  </si>
-  <si>
-    <t>QUALITY IMAGE SDN BHD</t>
-  </si>
-  <si>
-    <t>1200000856</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
-  </si>
-  <si>
-    <t>1200000974</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CAO VÕ</t>
-  </si>
-  <si>
-    <t>1200001004</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
-  </si>
-  <si>
-    <t>1200000460</t>
-  </si>
-  <si>
-    <t>LÊ HỒNG TRƯỜNG</t>
-  </si>
-  <si>
-    <t>1200000820</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
-  </si>
-  <si>
-    <t>1200001144</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH BUÔN LÊ COFFEE</t>
-  </si>
-  <si>
-    <t>1200000959</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ GỖ HOÀNG PHÁT</t>
-  </si>
-  <si>
-    <t>1200001015</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN XÂY DỰNG THƯƠNG MẠI VÀ TRANG TRÍ NỘI THẤT THÀNH PHÁT</t>
-  </si>
-  <si>
-    <t>1200000812</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN NIEMEN TEHTAAT VIỆT NAM</t>
-  </si>
-  <si>
-    <t>1200000470</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH MTV MIRAMAR</t>
-  </si>
-  <si>
-    <t>1200001070</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH QUÂN THÚY</t>
-  </si>
-  <si>
-    <t>1200000861</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI AN PHỤNG</t>
-  </si>
-  <si>
-    <t>1200001059</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN XÂY DỰNG - THƯƠNG MẠI - NỘI THẤT HH</t>
-  </si>
-  <si>
-    <t>1200001136</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH NỘI THẤT TÂM CASA</t>
   </si>
   <si>
     <t>Company Code</t>
@@ -1187,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1211,8 +1223,9 @@
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
@@ -1221,79 +1234,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1660,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>391739760</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1678,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>391739760</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -2048,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>387929369</v>
+        <v>1007691253</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2063,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>387929369</v>
+        <v>1007691253</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2507,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>183053088</v>
+        <v>373119696</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -2525,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>183053088</v>
+        <v>373119696</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2584,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>47299334</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
@@ -2602,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="2">
-        <v>0</v>
+        <v>47299334</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -2738,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>252400806</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -2756,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <v>0</v>
+        <v>252400806</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -3306,34 +3319,34 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>11594111</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>2440800</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -3345,19 +3358,19 @@
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>260820480</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>260820480</v>
+        <v>14034911</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>0</v>
+        <v>11452238</v>
       </c>
       <c r="T28" s="2">
-        <v>0</v>
+        <v>2440800</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
@@ -3372,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>0</v>
+        <v>13893038</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -3392,22 +3405,22 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="2">
-        <v>554876741</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -3422,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>260820480</v>
       </c>
       <c r="Q29" s="2">
-        <v>554876741</v>
+        <v>260820480</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -3469,25 +3482,25 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J30" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="2">
-        <v>1369289880</v>
+        <v>554876741</v>
       </c>
       <c r="L30" s="2">
-        <v>47214360</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -3502,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="Q30" s="2">
-        <v>1416504240</v>
+        <v>554876741</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>554876741</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -3526,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="2">
-        <v>0</v>
+        <v>554876741</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -3546,28 +3559,28 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J31" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="2">
-        <v>3067454017</v>
+        <v>1369289880</v>
       </c>
       <c r="L31" s="2">
-        <v>4120169888</v>
+        <v>47214360</v>
       </c>
       <c r="M31" s="2">
-        <v>305286534</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -3579,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <v>7492910439</v>
+        <v>1416504240</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -3623,28 +3636,28 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J32" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="2">
-        <v>70892323</v>
+        <v>3067454017</v>
       </c>
       <c r="L32" s="2">
-        <v>0</v>
+        <v>4120169888</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
+        <v>305286534</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -3656,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>70892323</v>
+        <v>7492910439</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>9923040</v>
+        <v>0</v>
       </c>
       <c r="T32" s="2">
-        <v>0</v>
+        <v>1526797529</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -3680,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>9923040</v>
+        <v>1526797529</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -3700,25 +3713,25 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J33" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="2">
-        <v>18394560</v>
+        <v>85058985</v>
       </c>
       <c r="L33" s="2">
-        <v>43212855</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -3733,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <v>61607415</v>
+        <v>85058985</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>6787145</v>
+        <v>9923040</v>
       </c>
       <c r="T33" s="2">
-        <v>43212855</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -3757,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>50000000</v>
+        <v>9923040</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -3777,25 +3790,25 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="2">
-        <v>47256048</v>
+        <v>18394560</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>43212855</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
@@ -3810,16 +3823,16 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>47256048</v>
+        <v>61607415</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <v>36465120</v>
+        <v>6787145</v>
       </c>
       <c r="T34" s="2">
-        <v>0</v>
+        <v>43212855</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -3834,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <v>36465120</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -3845,19 +3858,19 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
         <v>99</v>
@@ -3869,7 +3882,7 @@
         <v>9</v>
       </c>
       <c r="K35" s="2">
-        <v>31089117</v>
+        <v>47256048</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -3887,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="2">
-        <v>31089117</v>
+        <v>47256048</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <v>0</v>
+        <v>36465120</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -3911,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>0</v>
+        <v>36465120</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -3922,31 +3935,31 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
         <v>101</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>102</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>103</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>104</v>
       </c>
-      <c r="I36" t="s">
-        <v>105</v>
-      </c>
       <c r="J36" t="s">
         <v>9</v>
       </c>
       <c r="K36" s="2">
-        <v>20162540</v>
+        <v>31089117</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -3964,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <v>20162540</v>
+        <v>31089117</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
@@ -3999,13 +4012,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
         <v>106</v>
@@ -4023,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="2">
-        <v>33875710</v>
+        <v>20162540</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -4041,13 +4054,13 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>33875710</v>
+        <v>20162540</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <v>0</v>
+        <v>10841142</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -4065,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <v>0</v>
+        <v>10841142</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -4076,13 +4089,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
         <v>110</v>
@@ -4100,7 +4113,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="2">
-        <v>30839021</v>
+        <v>33875710</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -4118,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <v>30839021</v>
+        <v>33875710</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
@@ -4153,37 +4166,37 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J39" t="s">
         <v>9</v>
       </c>
       <c r="K39" s="2">
-        <v>458232592</v>
+        <v>30839021</v>
       </c>
       <c r="L39" s="2">
-        <v>529827744</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>61204913</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -4195,16 +4208,16 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>1049265249</v>
+        <v>30839021</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>0</v>
+        <v>30839021</v>
       </c>
       <c r="T39" s="2">
-        <v>200000000</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
@@ -4219,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="2">
-        <v>200000000</v>
+        <v>30839021</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -4230,37 +4243,37 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J40" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="2">
-        <v>366138385</v>
+        <v>458232592</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>529827744</v>
       </c>
       <c r="M40" s="2">
-        <v>0</v>
+        <v>61204913</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -4272,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>366138385</v>
+        <v>1049265249</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>79233747</v>
+        <v>0</v>
       </c>
       <c r="T40" s="2">
-        <v>0</v>
+        <v>200000000</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
@@ -4296,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>79233747</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -4307,37 +4320,37 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" t="s">
         <v>102</v>
       </c>
-      <c r="G41" t="s">
-        <v>103</v>
-      </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J41" t="s">
         <v>9</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>366138385</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>42336913</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -4349,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="2">
-        <v>42336913</v>
+        <v>366138385</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>143113239</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -4373,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2">
-        <v>0</v>
+        <v>143113239</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -4384,37 +4397,37 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J42" t="s">
         <v>9</v>
       </c>
       <c r="K42" s="2">
-        <v>499362416</v>
+        <v>0</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>0</v>
+        <v>42336913</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -4426,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <v>499362416</v>
+        <v>42336913</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>62798038</v>
+        <v>0</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -4450,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="2">
-        <v>62798038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -4461,31 +4474,31 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J43" t="s">
         <v>9</v>
       </c>
       <c r="K43" s="2">
-        <v>346260810</v>
+        <v>499362416</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -4503,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="2">
-        <v>346260810</v>
+        <v>499362416</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>210192245</v>
+        <v>219725897</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -4527,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>210192245</v>
+        <v>219725897</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -4538,19 +4551,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="H44" t="s">
         <v>127</v>
@@ -4562,7 +4575,7 @@
         <v>9</v>
       </c>
       <c r="K44" s="2">
-        <v>0</v>
+        <v>346260810</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -4574,19 +4587,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>-437763</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2">
-        <v>-563094</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2">
-        <v>-1000857</v>
+        <v>346260810</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>0</v>
+        <v>210192245</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -4604,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>0</v>
+        <v>210192245</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -4615,13 +4628,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F45" t="s">
         <v>129</v>
@@ -4639,25 +4652,25 @@
         <v>9</v>
       </c>
       <c r="K45" s="2">
-        <v>8862904</v>
+        <v>0</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>-458131</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>0</v>
+        <v>-437763</v>
       </c>
       <c r="P45" s="2">
-        <v>0</v>
+        <v>-563094</v>
       </c>
       <c r="Q45" s="2">
-        <v>8404773</v>
+        <v>-1000857</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -4692,19 +4705,19 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="H46" t="s">
         <v>133</v>
@@ -4731,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>25628426</v>
+        <v>-731234</v>
       </c>
       <c r="Q46" s="2">
-        <v>25628426</v>
+        <v>-731234</v>
       </c>
       <c r="R46" s="2">
         <v>0</v>
@@ -4769,19 +4782,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
         <v>135</v>
@@ -4793,13 +4806,13 @@
         <v>9</v>
       </c>
       <c r="K47" s="2">
-        <v>0</v>
+        <v>8862904</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>-840131</v>
+        <v>-458131</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -4811,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="2">
-        <v>-840131</v>
+        <v>8404773</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
@@ -4846,19 +4859,19 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
         <v>137</v>
@@ -4870,25 +4883,25 @@
         <v>9</v>
       </c>
       <c r="K48" s="2">
-        <v>8553717</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>38598624</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>5064037</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>42755331</v>
+        <v>0</v>
       </c>
       <c r="P48" s="2">
-        <v>0</v>
+        <v>25628426</v>
       </c>
       <c r="Q48" s="2">
-        <v>94971709</v>
+        <v>25628426</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -4923,19 +4936,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
         <v>139</v>
@@ -4947,13 +4960,13 @@
         <v>9</v>
       </c>
       <c r="K49" s="2">
-        <v>23064694</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>0</v>
+        <v>-840131</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -4965,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>23064694</v>
+        <v>-840131</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5000,49 +5013,49 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s">
         <v>141</v>
       </c>
-      <c r="F50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>142</v>
       </c>
-      <c r="I50" t="s">
-        <v>143</v>
-      </c>
       <c r="J50" t="s">
         <v>9</v>
       </c>
       <c r="K50" s="2">
-        <v>54874800</v>
+        <v>8553717</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>38598624</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
       </c>
       <c r="N50" s="2">
-        <v>0</v>
+        <v>5064037</v>
       </c>
       <c r="O50" s="2">
-        <v>0</v>
+        <v>42755331</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <v>54874800</v>
+        <v>94971709</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
@@ -5077,34 +5090,34 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" t="s">
         <v>144</v>
       </c>
-      <c r="I51" t="s">
-        <v>145</v>
-      </c>
       <c r="J51" t="s">
         <v>9</v>
       </c>
       <c r="K51" s="2">
-        <v>304812288</v>
+        <v>23064694</v>
       </c>
       <c r="L51" s="2">
-        <v>143665920</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -5119,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>448478208</v>
+        <v>23064694</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5154,19 +5167,19 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
         <v>146</v>
@@ -5178,7 +5191,7 @@
         <v>9</v>
       </c>
       <c r="K52" s="2">
-        <v>31110202</v>
+        <v>54874800</v>
       </c>
       <c r="L52" s="2">
         <v>0</v>
@@ -5196,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>31110202</v>
+        <v>54874800</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -5231,19 +5244,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
         <v>148</v>
@@ -5255,10 +5268,10 @@
         <v>9</v>
       </c>
       <c r="K53" s="2">
-        <v>3880646</v>
+        <v>304812288</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>143665920</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -5273,16 +5286,16 @@
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>3880646</v>
+        <v>448478208</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <v>0</v>
+        <v>26682048</v>
       </c>
       <c r="T53" s="2">
-        <v>0</v>
+        <v>143665920</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
@@ -5297,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2">
-        <v>0</v>
+        <v>170347968</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -5308,19 +5321,19 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="H54" t="s">
         <v>150</v>
@@ -5332,7 +5345,7 @@
         <v>9</v>
       </c>
       <c r="K54" s="2">
-        <v>277171200</v>
+        <v>31110202</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -5350,13 +5363,13 @@
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <v>277171200</v>
+        <v>31110202</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>0</v>
+        <v>31110202</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -5374,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>0</v>
+        <v>31110202</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -5385,19 +5398,19 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s">
         <v>152</v>
@@ -5409,13 +5422,13 @@
         <v>9</v>
       </c>
       <c r="K55" s="2">
-        <v>27111603</v>
+        <v>3880646</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -5427,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="2">
-        <v>80991069</v>
+        <v>3880646</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
@@ -5439,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
       <c r="V55" s="2">
         <v>0</v>
@@ -5451,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -5462,19 +5475,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="H56" t="s">
         <v>154</v>
@@ -5486,7 +5499,7 @@
         <v>9</v>
       </c>
       <c r="K56" s="2">
-        <v>50388480</v>
+        <v>22253189</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
@@ -5504,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <v>50388480</v>
+        <v>22253189</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
@@ -5548,10 +5561,10 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
         <v>156</v>
@@ -5563,10 +5576,10 @@
         <v>9</v>
       </c>
       <c r="K57" s="2">
-        <v>103815691</v>
+        <v>277171200</v>
       </c>
       <c r="L57" s="2">
-        <v>103753094</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -5581,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="2">
-        <v>207568785</v>
+        <v>277171200</v>
       </c>
       <c r="R57" s="2">
         <v>0</v>
@@ -5616,19 +5629,19 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H58" t="s">
         <v>158</v>
@@ -5640,25 +5653,25 @@
         <v>9</v>
       </c>
       <c r="K58" s="2">
-        <v>0</v>
+        <v>27111603</v>
       </c>
       <c r="L58" s="2">
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <v>16584649</v>
+        <v>0</v>
       </c>
       <c r="P58" s="2">
-        <v>13622397</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <v>30207046</v>
+        <v>80991069</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
@@ -5670,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
       <c r="V58" s="2">
         <v>0</v>
@@ -5682,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -5693,31 +5706,31 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s">
         <v>160</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>161</v>
       </c>
-      <c r="H59" t="s">
-        <v>158</v>
-      </c>
-      <c r="I59" t="s">
-        <v>159</v>
-      </c>
       <c r="J59" t="s">
         <v>9</v>
       </c>
       <c r="K59" s="2">
-        <v>0</v>
+        <v>50388480</v>
       </c>
       <c r="L59" s="2">
         <v>0</v>
@@ -5732,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <v>38518911</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2">
-        <v>38518911</v>
+        <v>50388480</v>
       </c>
       <c r="R59" s="2">
         <v>0</v>
@@ -5756,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="X59" s="2">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="2">
-        <v>30000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -5770,19 +5783,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s">
         <v>162</v>
@@ -5794,10 +5807,10 @@
         <v>9</v>
       </c>
       <c r="K60" s="2">
-        <v>0</v>
+        <v>103815691</v>
       </c>
       <c r="L60" s="2">
-        <v>869498</v>
+        <v>103753094</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
@@ -5812,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <v>869498</v>
+        <v>207568785</v>
       </c>
       <c r="R60" s="2">
         <v>0</v>
@@ -5847,26 +5860,26 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s">
         <v>164</v>
       </c>
-      <c r="G61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>165</v>
       </c>
-      <c r="I61" t="s">
-        <v>166</v>
-      </c>
       <c r="J61" t="s">
         <v>9</v>
       </c>
@@ -5874,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <v>150120</v>
+        <v>0</v>
       </c>
       <c r="M61" s="2">
         <v>0</v>
@@ -5883,13 +5896,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <v>0</v>
+        <v>16584649</v>
       </c>
       <c r="P61" s="2">
-        <v>0</v>
+        <v>13622397</v>
       </c>
       <c r="Q61" s="2">
-        <v>150120</v>
+        <v>30207046</v>
       </c>
       <c r="R61" s="2">
         <v>0</v>
@@ -5924,34 +5937,34 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="G62" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="H62" t="s">
+        <v>164</v>
+      </c>
+      <c r="I62" t="s">
         <v>165</v>
       </c>
-      <c r="I62" t="s">
-        <v>166</v>
-      </c>
       <c r="J62" t="s">
         <v>9</v>
       </c>
       <c r="K62" s="2">
-        <v>394925760</v>
+        <v>0</v>
       </c>
       <c r="L62" s="2">
-        <v>95283648</v>
+        <v>0</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -5963,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="P62" s="2">
-        <v>0</v>
+        <v>38518911</v>
       </c>
       <c r="Q62" s="2">
-        <v>490209408</v>
+        <v>38518911</v>
       </c>
       <c r="R62" s="2">
         <v>0</v>
@@ -5987,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="X62" s="2">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="Y62" s="2">
-        <v>0</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -6001,34 +6014,34 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J63" t="s">
         <v>9</v>
       </c>
       <c r="K63" s="2">
-        <v>15087916</v>
+        <v>0</v>
       </c>
       <c r="L63" s="2">
-        <v>14786158</v>
+        <v>869498</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -6043,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="2">
-        <v>29874074</v>
+        <v>869498</v>
       </c>
       <c r="R63" s="2">
         <v>0</v>
@@ -6087,25 +6100,25 @@
         <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G64" t="s">
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J64" t="s">
         <v>9</v>
       </c>
       <c r="K64" s="2">
-        <v>354240</v>
+        <v>0</v>
       </c>
       <c r="L64" s="2">
-        <v>0</v>
+        <v>150120</v>
       </c>
       <c r="M64" s="2">
         <v>0</v>
@@ -6120,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="2">
-        <v>354240</v>
+        <v>150120</v>
       </c>
       <c r="R64" s="2">
         <v>0</v>
@@ -6164,25 +6177,25 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J65" t="s">
         <v>9</v>
       </c>
       <c r="K65" s="2">
-        <v>86512752</v>
+        <v>394925760</v>
       </c>
       <c r="L65" s="2">
-        <v>0</v>
+        <v>95283648</v>
       </c>
       <c r="M65" s="2">
         <v>0</v>
@@ -6197,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <v>86512752</v>
+        <v>490209408</v>
       </c>
       <c r="R65" s="2">
         <v>0</v>
@@ -6232,34 +6245,34 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="H66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J66" t="s">
         <v>9</v>
       </c>
       <c r="K66" s="2">
-        <v>245569000</v>
+        <v>15087916</v>
       </c>
       <c r="L66" s="2">
-        <v>214508200</v>
+        <v>14786158</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
@@ -6274,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="2">
-        <v>460077200</v>
+        <v>29874074</v>
       </c>
       <c r="R66" s="2">
         <v>0</v>
@@ -6318,10 +6331,10 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="H67" t="s">
         <v>175</v>
@@ -6333,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="K67" s="2">
-        <v>35977392</v>
+        <v>354240</v>
       </c>
       <c r="L67" s="2">
-        <v>45515952</v>
+        <v>0</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
@@ -6351,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="2">
-        <v>81493344</v>
+        <v>354240</v>
       </c>
       <c r="R67" s="2">
         <v>0</v>
@@ -6395,22 +6408,22 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J68" t="s">
         <v>9</v>
       </c>
       <c r="K68" s="2">
-        <v>708209568</v>
+        <v>86512752</v>
       </c>
       <c r="L68" s="2">
         <v>0</v>
@@ -6428,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="Q68" s="2">
-        <v>708209568</v>
+        <v>86512752</v>
       </c>
       <c r="R68" s="2">
         <v>0</v>
       </c>
       <c r="S68" s="2">
-        <v>102118320</v>
+        <v>46813680</v>
       </c>
       <c r="T68" s="2">
         <v>0</v>
@@ -6452,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="2">
-        <v>102118320</v>
+        <v>46813680</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
@@ -6463,34 +6476,34 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
       </c>
       <c r="K69" s="2">
-        <v>10235715</v>
+        <v>245569000</v>
       </c>
       <c r="L69" s="2">
-        <v>8519043</v>
+        <v>214508200</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
@@ -6499,13 +6512,13 @@
         <v>0</v>
       </c>
       <c r="O69" s="2">
-        <v>44470499</v>
+        <v>0</v>
       </c>
       <c r="P69" s="2">
         <v>0</v>
       </c>
       <c r="Q69" s="2">
-        <v>63225257</v>
+        <v>460077200</v>
       </c>
       <c r="R69" s="2">
         <v>0</v>
@@ -6523,13 +6536,13 @@
         <v>0</v>
       </c>
       <c r="W69" s="2">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0</v>
       </c>
       <c r="Y69" s="2">
-        <v>15000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -6540,19 +6553,19 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="G70" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="H70" t="s">
         <v>181</v>
@@ -6564,10 +6577,10 @@
         <v>9</v>
       </c>
       <c r="K70" s="2">
-        <v>20741602</v>
+        <v>35977392</v>
       </c>
       <c r="L70" s="2">
-        <v>0</v>
+        <v>45515952</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -6582,13 +6595,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="2">
-        <v>20741602</v>
+        <v>81493344</v>
       </c>
       <c r="R70" s="2">
         <v>0</v>
       </c>
       <c r="S70" s="2">
-        <v>3731522</v>
+        <v>0</v>
       </c>
       <c r="T70" s="2">
         <v>0</v>
@@ -6606,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="2">
-        <v>3731522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -6626,10 +6639,10 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s">
         <v>183</v>
@@ -6641,13 +6654,13 @@
         <v>9</v>
       </c>
       <c r="K71" s="2">
-        <v>0</v>
+        <v>708209568</v>
       </c>
       <c r="L71" s="2">
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>6301584</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -6659,19 +6672,19 @@
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <v>6301584</v>
+        <v>708209568</v>
       </c>
       <c r="R71" s="2">
         <v>0</v>
       </c>
       <c r="S71" s="2">
-        <v>0</v>
+        <v>102118320</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
       </c>
       <c r="U71" s="2">
-        <v>6301584</v>
+        <v>0</v>
       </c>
       <c r="V71" s="2">
         <v>0</v>
@@ -6683,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="2">
-        <v>6301584</v>
+        <v>102118320</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -6694,19 +6707,19 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G72" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="H72" t="s">
         <v>185</v>
@@ -6718,10 +6731,10 @@
         <v>9</v>
       </c>
       <c r="K72" s="2">
-        <v>5581440</v>
+        <v>10235715</v>
       </c>
       <c r="L72" s="2">
-        <v>0</v>
+        <v>8519043</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
@@ -6730,13 +6743,13 @@
         <v>0</v>
       </c>
       <c r="O72" s="2">
-        <v>0</v>
+        <v>44470499</v>
       </c>
       <c r="P72" s="2">
         <v>0</v>
       </c>
       <c r="Q72" s="2">
-        <v>5581440</v>
+        <v>63225257</v>
       </c>
       <c r="R72" s="2">
         <v>0</v>
@@ -6754,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="W72" s="2">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="X72" s="2">
         <v>0</v>
       </c>
       <c r="Y72" s="2">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -6771,19 +6784,19 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F73" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
         <v>187</v>
@@ -6795,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="K73" s="2">
-        <v>8293106</v>
+        <v>20741602</v>
       </c>
       <c r="L73" s="2">
-        <v>8973326</v>
+        <v>0</v>
       </c>
       <c r="M73" s="2">
         <v>0</v>
@@ -6813,13 +6826,13 @@
         <v>0</v>
       </c>
       <c r="Q73" s="2">
-        <v>17266432</v>
+        <v>20741602</v>
       </c>
       <c r="R73" s="2">
         <v>0</v>
       </c>
       <c r="S73" s="2">
-        <v>0</v>
+        <v>13991522</v>
       </c>
       <c r="T73" s="2">
         <v>0</v>
@@ -6837,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="2">
-        <v>0</v>
+        <v>13991522</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -6848,19 +6861,19 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
         <v>189</v>
@@ -6878,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <v>15582617</v>
+        <v>6301584</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -6887,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="P74" s="2">
-        <v>6181387</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="2">
-        <v>21764004</v>
+        <v>6301584</v>
       </c>
       <c r="R74" s="2">
         <v>0</v>
@@ -6902,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="2">
-        <v>0</v>
+        <v>6301584</v>
       </c>
       <c r="V74" s="2">
         <v>0</v>
@@ -6914,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="2">
-        <v>0</v>
+        <v>6301584</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -6925,19 +6938,19 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="H75" t="s">
         <v>191</v>
@@ -6949,10 +6962,10 @@
         <v>9</v>
       </c>
       <c r="K75" s="2">
-        <v>227578032</v>
+        <v>5581440</v>
       </c>
       <c r="L75" s="2">
-        <v>43138224</v>
+        <v>0</v>
       </c>
       <c r="M75" s="2">
         <v>0</v>
@@ -6967,13 +6980,13 @@
         <v>0</v>
       </c>
       <c r="Q75" s="2">
-        <v>270716256</v>
+        <v>5581440</v>
       </c>
       <c r="R75" s="2">
-        <v>0</v>
+        <v>111629</v>
       </c>
       <c r="S75" s="2">
-        <v>0</v>
+        <v>5581440</v>
       </c>
       <c r="T75" s="2">
         <v>0</v>
@@ -6991,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="2">
-        <v>0</v>
+        <v>5693069</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -7002,19 +7015,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="G76" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="H76" t="s">
         <v>193</v>
@@ -7026,10 +7039,10 @@
         <v>9</v>
       </c>
       <c r="K76" s="2">
-        <v>89640000</v>
+        <v>8293106</v>
       </c>
       <c r="L76" s="2">
-        <v>0</v>
+        <v>8973326</v>
       </c>
       <c r="M76" s="2">
         <v>0</v>
@@ -7044,13 +7057,13 @@
         <v>0</v>
       </c>
       <c r="Q76" s="2">
-        <v>89640000</v>
+        <v>17266432</v>
       </c>
       <c r="R76" s="2">
         <v>0</v>
       </c>
       <c r="S76" s="2">
-        <v>24900000</v>
+        <v>0</v>
       </c>
       <c r="T76" s="2">
         <v>0</v>
@@ -7068,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="2">
-        <v>24900000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -7079,19 +7092,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s">
         <v>195</v>
@@ -7103,13 +7116,13 @@
         <v>9</v>
       </c>
       <c r="K77" s="2">
-        <v>45331549</v>
+        <v>0</v>
       </c>
       <c r="L77" s="2">
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <v>62387128</v>
+        <v>15582617</v>
       </c>
       <c r="N77" s="2">
         <v>0</v>
@@ -7118,10 +7131,10 @@
         <v>0</v>
       </c>
       <c r="P77" s="2">
-        <v>0</v>
+        <v>6181387</v>
       </c>
       <c r="Q77" s="2">
-        <v>107718677</v>
+        <v>21764004</v>
       </c>
       <c r="R77" s="2">
         <v>0</v>
@@ -7156,19 +7169,19 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
         <v>197</v>
@@ -7180,10 +7193,10 @@
         <v>9</v>
       </c>
       <c r="K78" s="2">
-        <v>92646274</v>
+        <v>227578032</v>
       </c>
       <c r="L78" s="2">
-        <v>0</v>
+        <v>43138224</v>
       </c>
       <c r="M78" s="2">
         <v>0</v>
@@ -7198,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2">
-        <v>92646274</v>
+        <v>270716256</v>
       </c>
       <c r="R78" s="2">
         <v>0</v>
@@ -7207,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <v>0</v>
+        <v>43138224</v>
       </c>
       <c r="U78" s="2">
         <v>0</v>
@@ -7222,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="2">
-        <v>0</v>
+        <v>43138224</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
@@ -7239,25 +7252,25 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>179</v>
+      </c>
+      <c r="G79" t="s">
+        <v>180</v>
+      </c>
+      <c r="H79" t="s">
         <v>199</v>
       </c>
-      <c r="F79" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>200</v>
       </c>
-      <c r="I79" t="s">
-        <v>201</v>
-      </c>
       <c r="J79" t="s">
         <v>9</v>
       </c>
       <c r="K79" s="2">
-        <v>75600000</v>
+        <v>89640000</v>
       </c>
       <c r="L79" s="2">
         <v>0</v>
@@ -7275,13 +7288,13 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2">
-        <v>75600000</v>
+        <v>89640000</v>
       </c>
       <c r="R79" s="2">
         <v>0</v>
       </c>
       <c r="S79" s="2">
-        <v>0</v>
+        <v>24900000</v>
       </c>
       <c r="T79" s="2">
         <v>0</v>
@@ -7299,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="2">
-        <v>0</v>
+        <v>24900000</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
@@ -7310,13 +7323,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="F80" t="s">
         <v>129</v>
@@ -7325,22 +7338,22 @@
         <v>130</v>
       </c>
       <c r="H80" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J80" t="s">
         <v>9</v>
       </c>
       <c r="K80" s="2">
-        <v>1446702</v>
+        <v>45331549</v>
       </c>
       <c r="L80" s="2">
-        <v>24638</v>
+        <v>0</v>
       </c>
       <c r="M80" s="2">
-        <v>0</v>
+        <v>62387128</v>
       </c>
       <c r="N80" s="2">
         <v>0</v>
@@ -7352,13 +7365,13 @@
         <v>0</v>
       </c>
       <c r="Q80" s="2">
-        <v>1471340</v>
+        <v>107718677</v>
       </c>
       <c r="R80" s="2">
-        <v>71362</v>
+        <v>0</v>
       </c>
       <c r="S80" s="2">
-        <v>641543</v>
+        <v>0</v>
       </c>
       <c r="T80" s="2">
         <v>0</v>
@@ -7376,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="2">
-        <v>712905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -7387,31 +7400,31 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J81" t="s">
         <v>9</v>
       </c>
       <c r="K81" s="2">
-        <v>11840521</v>
+        <v>112646274</v>
       </c>
       <c r="L81" s="2">
         <v>0</v>
@@ -7429,13 +7442,13 @@
         <v>0</v>
       </c>
       <c r="Q81" s="2">
-        <v>11840521</v>
+        <v>112646274</v>
       </c>
       <c r="R81" s="2">
         <v>0</v>
       </c>
       <c r="S81" s="2">
-        <v>0</v>
+        <v>66308248</v>
       </c>
       <c r="T81" s="2">
         <v>0</v>
@@ -7453,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="2">
-        <v>0</v>
+        <v>66308248</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -7464,31 +7477,31 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H82" t="s">
+        <v>206</v>
+      </c>
+      <c r="I82" t="s">
         <v>207</v>
       </c>
-      <c r="I82" t="s">
-        <v>208</v>
-      </c>
       <c r="J82" t="s">
         <v>9</v>
       </c>
       <c r="K82" s="2">
-        <v>6514266</v>
+        <v>75600000</v>
       </c>
       <c r="L82" s="2">
         <v>0</v>
@@ -7506,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="2">
-        <v>6514266</v>
+        <v>75600000</v>
       </c>
       <c r="R82" s="2">
         <v>0</v>
@@ -7541,19 +7554,19 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s">
         <v>209</v>
@@ -7565,10 +7578,10 @@
         <v>9</v>
       </c>
       <c r="K83" s="2">
-        <v>0</v>
+        <v>1446702</v>
       </c>
       <c r="L83" s="2">
-        <v>1287576</v>
+        <v>24638</v>
       </c>
       <c r="M83" s="2">
         <v>0</v>
@@ -7583,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="Q83" s="2">
-        <v>1287576</v>
+        <v>1471340</v>
       </c>
       <c r="R83" s="2">
-        <v>0</v>
+        <v>1784221</v>
       </c>
       <c r="S83" s="2">
-        <v>0</v>
+        <v>641543</v>
       </c>
       <c r="T83" s="2">
         <v>0</v>
@@ -7607,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="2">
-        <v>0</v>
+        <v>2425764</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -7618,34 +7631,34 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="H84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J84" t="s">
         <v>9</v>
       </c>
       <c r="K84" s="2">
-        <v>0</v>
+        <v>11840521</v>
       </c>
       <c r="L84" s="2">
-        <v>8756640</v>
+        <v>0</v>
       </c>
       <c r="M84" s="2">
         <v>0</v>
@@ -7660,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="2">
-        <v>8756640</v>
+        <v>11840521</v>
       </c>
       <c r="R84" s="2">
         <v>0</v>
@@ -7695,31 +7708,31 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G85" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H85" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J85" t="s">
         <v>9</v>
       </c>
       <c r="K85" s="2">
-        <v>6293384</v>
+        <v>6514266</v>
       </c>
       <c r="L85" s="2">
         <v>0</v>
@@ -7737,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="2">
-        <v>6293384</v>
+        <v>6514266</v>
       </c>
       <c r="R85" s="2">
         <v>0</v>
@@ -7772,31 +7785,31 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="H86" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J86" t="s">
         <v>9</v>
       </c>
       <c r="K86" s="2">
-        <v>4968000</v>
+        <v>6293384</v>
       </c>
       <c r="L86" s="2">
         <v>0</v>
@@ -7814,13 +7827,13 @@
         <v>0</v>
       </c>
       <c r="Q86" s="2">
-        <v>4968000</v>
+        <v>6293384</v>
       </c>
       <c r="R86" s="2">
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <v>0</v>
+        <v>6293384</v>
       </c>
       <c r="T86" s="2">
         <v>0</v>
@@ -7838,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="2">
-        <v>0</v>
+        <v>6293384</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -7849,34 +7862,34 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J87" t="s">
         <v>9</v>
       </c>
       <c r="K87" s="2">
-        <v>15552000</v>
+        <v>52071984</v>
       </c>
       <c r="L87" s="2">
-        <v>31735068</v>
+        <v>0</v>
       </c>
       <c r="M87" s="2">
         <v>0</v>
@@ -7891,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2">
-        <v>47287068</v>
+        <v>52071984</v>
       </c>
       <c r="R87" s="2">
         <v>0</v>
@@ -7926,34 +7939,34 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J88" t="s">
         <v>9</v>
       </c>
       <c r="K88" s="2">
-        <v>520636036</v>
+        <v>36258561</v>
       </c>
       <c r="L88" s="2">
-        <v>0</v>
+        <v>31735068</v>
       </c>
       <c r="M88" s="2">
         <v>0</v>
@@ -7968,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="2">
-        <v>520636036</v>
+        <v>67993629</v>
       </c>
       <c r="R88" s="2">
         <v>0</v>
@@ -8003,31 +8016,31 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" t="s">
         <v>101</v>
       </c>
-      <c r="F89" t="s">
-        <v>125</v>
-      </c>
       <c r="G89" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J89" t="s">
         <v>9</v>
       </c>
       <c r="K89" s="2">
-        <v>0</v>
+        <v>76946961</v>
       </c>
       <c r="L89" s="2">
         <v>0</v>
@@ -8042,16 +8055,16 @@
         <v>0</v>
       </c>
       <c r="P89" s="2">
-        <v>-731234</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="2">
-        <v>-731234</v>
+        <v>76946961</v>
       </c>
       <c r="R89" s="2">
         <v>0</v>
       </c>
       <c r="S89" s="2">
-        <v>0</v>
+        <v>56402906</v>
       </c>
       <c r="T89" s="2">
         <v>0</v>
@@ -8069,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="2">
-        <v>0</v>
+        <v>56402906</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -8080,31 +8093,31 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J90" t="s">
         <v>9</v>
       </c>
       <c r="K90" s="2">
-        <v>-913478</v>
+        <v>520636036</v>
       </c>
       <c r="L90" s="2">
         <v>0</v>
@@ -8113,16 +8126,16 @@
         <v>0</v>
       </c>
       <c r="N90" s="2">
-        <v>-913478</v>
+        <v>0</v>
       </c>
       <c r="O90" s="2">
-        <v>-137670</v>
+        <v>0</v>
       </c>
       <c r="P90" s="2">
         <v>0</v>
       </c>
       <c r="Q90" s="2">
-        <v>-1964626</v>
+        <v>520636036</v>
       </c>
       <c r="R90" s="2">
         <v>0</v>
@@ -8157,31 +8170,31 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J91" t="s">
         <v>9</v>
       </c>
       <c r="K91" s="2">
-        <v>0</v>
+        <v>-913478</v>
       </c>
       <c r="L91" s="2">
         <v>0</v>
@@ -8190,16 +8203,16 @@
         <v>0</v>
       </c>
       <c r="N91" s="2">
-        <v>0</v>
+        <v>-913478</v>
       </c>
       <c r="O91" s="2">
-        <v>0</v>
+        <v>-137670</v>
       </c>
       <c r="P91" s="2">
-        <v>-403920</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="2">
-        <v>-403920</v>
+        <v>-1964626</v>
       </c>
       <c r="R91" s="2">
         <v>0</v>
@@ -8234,34 +8247,34 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J92" t="s">
         <v>9</v>
       </c>
       <c r="K92" s="2">
-        <v>4962812</v>
+        <v>0</v>
       </c>
       <c r="L92" s="2">
-        <v>2440800</v>
+        <v>0</v>
       </c>
       <c r="M92" s="2">
         <v>0</v>
@@ -8273,19 +8286,19 @@
         <v>0</v>
       </c>
       <c r="P92" s="2">
-        <v>0</v>
+        <v>-403920</v>
       </c>
       <c r="Q92" s="2">
-        <v>7403612</v>
+        <v>-403920</v>
       </c>
       <c r="R92" s="2">
         <v>0</v>
       </c>
       <c r="S92" s="2">
-        <v>4962812</v>
+        <v>0</v>
       </c>
       <c r="T92" s="2">
-        <v>2440800</v>
+        <v>0</v>
       </c>
       <c r="U92" s="2">
         <v>0</v>
@@ -8300,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Y92" s="2">
-        <v>7403612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -8326,16 +8339,16 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I93" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J93" t="s">
         <v>9</v>
       </c>
       <c r="K93" s="2">
-        <v>3568320</v>
+        <v>8588160</v>
       </c>
       <c r="L93" s="2">
         <v>0</v>
@@ -8353,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="Q93" s="2">
-        <v>3568320</v>
+        <v>8588160</v>
       </c>
       <c r="R93" s="2">
         <v>0</v>
       </c>
       <c r="S93" s="2">
-        <v>3568320</v>
+        <v>8588160</v>
       </c>
       <c r="T93" s="2">
         <v>0</v>
@@ -8377,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="Y93" s="2">
-        <v>3568320</v>
+        <v>8588160</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
@@ -8388,31 +8401,31 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I94" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J94" t="s">
         <v>9</v>
       </c>
       <c r="K94" s="2">
-        <v>55983640</v>
+        <v>13588560</v>
       </c>
       <c r="L94" s="2">
         <v>0</v>
@@ -8430,13 +8443,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="2">
-        <v>55983640</v>
+        <v>13588560</v>
       </c>
       <c r="R94" s="2">
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <v>56402906</v>
+        <v>13588560</v>
       </c>
       <c r="T94" s="2">
         <v>0</v>
@@ -8454,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="2">
-        <v>56402906</v>
+        <v>13588560</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
@@ -8474,22 +8487,22 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G95" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H95" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I95" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J95" t="s">
         <v>9</v>
       </c>
       <c r="K95" s="2">
-        <v>13588560</v>
+        <v>8359200</v>
       </c>
       <c r="L95" s="2">
         <v>0</v>
@@ -8507,13 +8520,13 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2">
-        <v>13588560</v>
+        <v>8359200</v>
       </c>
       <c r="R95" s="2">
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <v>13588560</v>
+        <v>8359200</v>
       </c>
       <c r="T95" s="2">
         <v>0</v>
@@ -8531,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="2">
-        <v>13588560</v>
+        <v>8359200</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -8551,22 +8564,22 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I96" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J96" t="s">
         <v>9</v>
       </c>
       <c r="K96" s="2">
-        <v>8359200</v>
+        <v>1935360</v>
       </c>
       <c r="L96" s="2">
         <v>0</v>
@@ -8584,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="2">
-        <v>8359200</v>
+        <v>1935360</v>
       </c>
       <c r="R96" s="2">
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <v>8359200</v>
+        <v>1935360</v>
       </c>
       <c r="T96" s="2">
         <v>0</v>
@@ -8608,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="2">
-        <v>8359200</v>
+        <v>1935360</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -8619,31 +8632,31 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="H97" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I97" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J97" t="s">
         <v>9</v>
       </c>
       <c r="K97" s="2">
-        <v>1935360</v>
+        <v>7318080</v>
       </c>
       <c r="L97" s="2">
         <v>0</v>
@@ -8661,13 +8674,13 @@
         <v>0</v>
       </c>
       <c r="Q97" s="2">
-        <v>1935360</v>
+        <v>7318080</v>
       </c>
       <c r="R97" s="2">
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <v>1935360</v>
+        <v>7318080</v>
       </c>
       <c r="T97" s="2">
         <v>0</v>
@@ -8685,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="2">
-        <v>1935360</v>
+        <v>7318080</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
@@ -8696,31 +8709,31 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="H98" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J98" t="s">
         <v>9</v>
       </c>
       <c r="K98" s="2">
-        <v>7318080</v>
+        <v>4814059</v>
       </c>
       <c r="L98" s="2">
         <v>0</v>
@@ -8738,13 +8751,13 @@
         <v>0</v>
       </c>
       <c r="Q98" s="2">
-        <v>7318080</v>
+        <v>4814059</v>
       </c>
       <c r="R98" s="2">
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <v>7318080</v>
+        <v>4814059</v>
       </c>
       <c r="T98" s="2">
         <v>0</v>
@@ -8762,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="2">
-        <v>7318080</v>
+        <v>4814059</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -8773,31 +8786,31 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F99" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="H99" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J99" t="s">
         <v>9</v>
       </c>
       <c r="K99" s="2">
-        <v>4814059</v>
+        <v>10200000</v>
       </c>
       <c r="L99" s="2">
         <v>0</v>
@@ -8815,13 +8828,13 @@
         <v>0</v>
       </c>
       <c r="Q99" s="2">
-        <v>4814059</v>
+        <v>10200000</v>
       </c>
       <c r="R99" s="2">
         <v>0</v>
       </c>
       <c r="S99" s="2">
-        <v>4814059</v>
+        <v>10200000</v>
       </c>
       <c r="T99" s="2">
         <v>0</v>
@@ -8839,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="Y99" s="2">
-        <v>4814059</v>
+        <v>10200000</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -8850,31 +8863,31 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="H100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I100" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J100" t="s">
         <v>9</v>
       </c>
       <c r="K100" s="2">
-        <v>10200000</v>
+        <v>15970608</v>
       </c>
       <c r="L100" s="2">
         <v>0</v>
@@ -8892,13 +8905,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="2">
-        <v>10200000</v>
+        <v>15970608</v>
       </c>
       <c r="R100" s="2">
         <v>0</v>
       </c>
       <c r="S100" s="2">
-        <v>10200000</v>
+        <v>15970608</v>
       </c>
       <c r="T100" s="2">
         <v>0</v>
@@ -8916,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="2">
-        <v>10200000</v>
+        <v>15970608</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -8936,22 +8949,22 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J101" t="s">
         <v>9</v>
       </c>
       <c r="K101" s="2">
-        <v>15970608</v>
+        <v>3361824</v>
       </c>
       <c r="L101" s="2">
         <v>0</v>
@@ -8969,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="Q101" s="2">
-        <v>15970608</v>
+        <v>3361824</v>
       </c>
       <c r="R101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2">
-        <v>15970608</v>
+        <v>3361824</v>
       </c>
       <c r="T101" s="2">
         <v>0</v>
@@ -8993,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="2">
-        <v>15970608</v>
+        <v>3361824</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,22 +9026,22 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I102" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J102" t="s">
         <v>9</v>
       </c>
       <c r="K102" s="2">
-        <v>3361824</v>
+        <v>4968000</v>
       </c>
       <c r="L102" s="2">
         <v>0</v>
@@ -9046,13 +9059,13 @@
         <v>0</v>
       </c>
       <c r="Q102" s="2">
-        <v>3361824</v>
+        <v>4968000</v>
       </c>
       <c r="R102" s="2">
         <v>0</v>
       </c>
       <c r="S102" s="2">
-        <v>3361824</v>
+        <v>4968000</v>
       </c>
       <c r="T102" s="2">
         <v>0</v>
@@ -9070,11 +9083,242 @@
         <v>0</v>
       </c>
       <c r="Y102" s="2">
-        <v>3361824</v>
+        <v>4968000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" t="s">
+        <v>170</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>83</v>
+      </c>
+      <c r="I103" t="s">
+        <v>84</v>
+      </c>
+      <c r="J103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" s="2">
+        <v>3889080</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O103" s="2">
+        <v>0</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>3889080</v>
+      </c>
+      <c r="R103" s="2">
+        <v>0</v>
+      </c>
+      <c r="S103" s="2">
+        <v>3889080</v>
+      </c>
+      <c r="T103" s="2">
+        <v>0</v>
+      </c>
+      <c r="U103" s="2">
+        <v>0</v>
+      </c>
+      <c r="V103" s="2">
+        <v>0</v>
+      </c>
+      <c r="W103" s="2">
+        <v>0</v>
+      </c>
+      <c r="X103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="2">
+        <v>3889080</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s">
+        <v>250</v>
+      </c>
+      <c r="I104" t="s">
+        <v>251</v>
+      </c>
+      <c r="J104" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>8756640</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>8756640</v>
+      </c>
+      <c r="R104" s="2">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="T104" s="2">
+        <v>8756640</v>
+      </c>
+      <c r="U104" s="2">
+        <v>0</v>
+      </c>
+      <c r="V104" s="2">
+        <v>0</v>
+      </c>
+      <c r="W104" s="2">
+        <v>0</v>
+      </c>
+      <c r="X104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="2">
+        <v>8756640</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>250</v>
+      </c>
+      <c r="I105" t="s">
+        <v>251</v>
+      </c>
+      <c r="J105" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <v>1287576</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+      <c r="O105" s="2">
+        <v>0</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>1287576</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="T105" s="2">
+        <v>1287576</v>
+      </c>
+      <c r="U105" s="2">
+        <v>0</v>
+      </c>
+      <c r="V105" s="2">
+        <v>0</v>
+      </c>
+      <c r="W105" s="2">
+        <v>0</v>
+      </c>
+      <c r="X105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="2">
+        <v>1287576</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y102"/>
+  <autoFilter ref="A1:Y105"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/demodata/ZRFI005.XLSX
+++ b/demodata/ZRFI005.XLSX
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$113</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="293">
   <si>
     <t>1000</t>
   </si>
@@ -192,7 +192,7 @@
     <t>1200000159</t>
   </si>
   <si>
-    <t>Công Ty TNHH RIVERBANK VIETNAM</t>
+    <t>Công Ty TNHH RIVERBANK VIỆT NAM</t>
   </si>
   <si>
     <t>1200000161</t>
@@ -276,7 +276,7 @@
     <t>1200000460</t>
   </si>
   <si>
-    <t>LÊ HỒNG TRƯỜNG</t>
+    <t>Vũ Tiến Hiền</t>
   </si>
   <si>
     <t>10888038</t>
@@ -441,91 +441,343 @@
     <t>CÔNG TY TNHH MỘT THÀNH VIÊN SẢN XUẤT THƯƠNG MẠI LOUIS PHƯỚC THẠNH</t>
   </si>
   <si>
+    <t>1200000865</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬT LIỆU XÂY DỰNG NGỌC THANH MINH</t>
+  </si>
+  <si>
+    <t>1200000876</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN HOÀNG HÀ</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1200000882</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ XÂY DỰNG VÀ CÔNG NGHỆ SÀN SƠN PHÁT</t>
+  </si>
+  <si>
+    <t>1200000903</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CÔNG NGHIỆP NHÀ XANH</t>
+  </si>
+  <si>
+    <t>1200000904</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH BẢO LÂM</t>
+  </si>
+  <si>
+    <t>1200000908</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN NHÀ VIỆT</t>
+  </si>
+  <si>
+    <t>1200000935</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN HỆ THỐNG SIÊU THỊ SƠN</t>
+  </si>
+  <si>
+    <t>1200000949</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BAO BÌ IN KIM LOẠI THẾ KỶ</t>
+  </si>
+  <si>
+    <t>1200000971</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ SƠN ANH TÚ</t>
+  </si>
+  <si>
+    <t>1200000993</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BAO BÌ SAHA DHARAWAT</t>
+  </si>
+  <si>
+    <t>1200001011</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐÔNG NGÔ MANUFACTURER</t>
+  </si>
+  <si>
+    <t>1200001023</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - DỊCH VỤ - XÂY DỰNG MAI TÂM</t>
+  </si>
+  <si>
+    <t>1200001029</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
+  </si>
+  <si>
+    <t>10400773</t>
+  </si>
+  <si>
+    <t>VŨ ANH HAI</t>
+  </si>
+  <si>
+    <t>1200001038</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÚ MỸ THĂNG</t>
+  </si>
+  <si>
+    <t>1200001041</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI XÂY DỰNG THIÊN PHÚ DECOR</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1200001042</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIẾN TRÚC GỖ BỌC ĐÔ</t>
+  </si>
+  <si>
+    <t>1200001051</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VINAWOOD</t>
+  </si>
+  <si>
+    <t>10999776</t>
+  </si>
+  <si>
+    <t>ĐẶNG VĂN CHỈ</t>
+  </si>
+  <si>
+    <t>1200001056</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THANH THANH LIÊM</t>
+  </si>
+  <si>
+    <t>1200001062</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BOHO CORPORATION</t>
+  </si>
+  <si>
+    <t>1200001065</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ TÂN LÂM</t>
+  </si>
+  <si>
+    <t>1200001072</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN KIM CHI</t>
+  </si>
+  <si>
+    <t>1200001077</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX TM QUANG TRUNG NGUYÊN</t>
+  </si>
+  <si>
+    <t>1200001079</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG HUY HƯNG</t>
+  </si>
+  <si>
+    <t>1200001084</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX TM DV SƠN MIỀN TÂY</t>
+  </si>
+  <si>
+    <t>1200001092</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HỒNG LUÂN 3</t>
+  </si>
+  <si>
+    <t>1200001094</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM SẢN XUẤT XNK NỘI THẤT MCS</t>
+  </si>
+  <si>
+    <t>1200001104</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ARTEX ĐỒNG THÁP</t>
+  </si>
+  <si>
+    <t>1200001109</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ XÂY DỰNG THIÊN ĐỊNH</t>
+  </si>
+  <si>
+    <t>1200001113</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XD SX TM DV AB</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1200001114</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI TUÝP NHÔM THUẬN QUÂN</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1200001118</t>
+  </si>
+  <si>
+    <t>LAZADA</t>
+  </si>
+  <si>
+    <t>1200001119</t>
+  </si>
+  <si>
+    <t>VŨ ĐÌNH DŨNG</t>
+  </si>
+  <si>
+    <t>1200001123</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN TÀI TRÍ</t>
+  </si>
+  <si>
+    <t>1200001125</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH TRẦN QUÝ</t>
+  </si>
+  <si>
+    <t>1200001133</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIM THƯ FURNITURE</t>
+  </si>
+  <si>
+    <t>1200001144</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH BUÔN LÊ COFFEE</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1300000016</t>
+  </si>
+  <si>
+    <t>QUALITY IMAGE SDN BHD</t>
+  </si>
+  <si>
     <t>1200000863</t>
   </si>
   <si>
     <t>Công Ty TNHH Thương Mại Tổng Hợp Dũng Lý</t>
   </si>
   <si>
-    <t>1200000865</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VẬT LIỆU XÂY DỰNG NGỌC THANH MINH</t>
-  </si>
-  <si>
-    <t>1200000876</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN HOÀNG HÀ</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1200000882</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ XÂY DỰNG VÀ CÔNG NGHỆ SÀN SƠN PHÁT</t>
-  </si>
-  <si>
-    <t>1200000903</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CÔNG NGHIỆP NHÀ XANH</t>
-  </si>
-  <si>
-    <t>1200000904</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH BẢO LÂM</t>
-  </si>
-  <si>
-    <t>1200000908</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN NHÀ VIỆT</t>
-  </si>
-  <si>
-    <t>1200000935</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN HỆ THỐNG SIÊU THỊ SƠN</t>
-  </si>
-  <si>
-    <t>1200000949</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BAO BÌ IN KIM LOẠI THẾ KỶ</t>
-  </si>
-  <si>
-    <t>1200000971</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ SƠN ANH TÚ</t>
-  </si>
-  <si>
-    <t>1200000993</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH BAO BÌ SAHA DHARAWAT</t>
-  </si>
-  <si>
-    <t>1200001011</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐÔNG NGÔ MANUFACTURER</t>
-  </si>
-  <si>
-    <t>1200001029</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
-  </si>
-  <si>
-    <t>10400773</t>
-  </si>
-  <si>
-    <t>VŨ ANH HAI</t>
+    <t>1200000974</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CAO VÕ</t>
+  </si>
+  <si>
+    <t>1200001004</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
+  </si>
+  <si>
+    <t>1200000820</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
+  </si>
+  <si>
+    <t>1200000959</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ GỖ HOÀNG PHÁT</t>
+  </si>
+  <si>
+    <t>1200001015</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY DỰNG THƯƠNG MẠI VÀ TRANG TRÍ NỘI THẤT THÀNH PHÁT</t>
+  </si>
+  <si>
+    <t>1200000812</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN NIEMEN TEHTAAT VIỆT NAM</t>
+  </si>
+  <si>
+    <t>1200000470</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH MTV MIRAMAR</t>
+  </si>
+  <si>
+    <t>1200001070</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH QUÂN THÚY</t>
+  </si>
+  <si>
+    <t>1200000861</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI AN PHỤNG</t>
+  </si>
+  <si>
+    <t>1200001059</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY DỰNG - THƯƠNG MẠI - NỘI THẤT HH</t>
+  </si>
+  <si>
+    <t>1200001136</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH NỘI THẤT TÂM CASA</t>
+  </si>
+  <si>
+    <t>1200001138</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN I-STAR ANIMATRONIC</t>
+  </si>
+  <si>
+    <t>1200001124</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MTV HOÀNG MINH TUẤN</t>
+  </si>
+  <si>
+    <t>1200001143</t>
+  </si>
+  <si>
+    <t>VÕ CÔNG QUANG</t>
   </si>
   <si>
     <t>1200001030</t>
@@ -534,250 +786,46 @@
     <t>CÔNG TY TNHH THƯƠNG MẠI - SẢN XUẤT VÀ XÂY DỰNG PALOMA</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1200001038</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÚ MỸ THĂNG</t>
-  </si>
-  <si>
-    <t>1200001041</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI XÂY DỰNG THIÊN PHÚ DECOR</t>
-  </si>
-  <si>
-    <t>1200001042</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KIẾN TRÚC GỖ BỌC ĐÔ</t>
-  </si>
-  <si>
-    <t>1200001051</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VINAWOOD</t>
-  </si>
-  <si>
-    <t>10999776</t>
-  </si>
-  <si>
-    <t>ĐẶNG VĂN CHỈ</t>
-  </si>
-  <si>
-    <t>1200001056</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THANH THANH LIÊM</t>
-  </si>
-  <si>
-    <t>1200001062</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BOHO CORPORATION</t>
-  </si>
-  <si>
-    <t>1200001065</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ TÂN LÂM</t>
-  </si>
-  <si>
-    <t>1200001072</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN KIM CHI</t>
-  </si>
-  <si>
-    <t>1200001077</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX TM QUANG TRUNG NGUYÊN</t>
-  </si>
-  <si>
-    <t>1200001079</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG HUY HƯNG</t>
-  </si>
-  <si>
-    <t>1200001084</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX TM DV SƠN MIỀN TÂY</t>
-  </si>
-  <si>
-    <t>1200001092</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HỒNG LUÂN 3</t>
-  </si>
-  <si>
-    <t>1200001094</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM SẢN XUẤT XNK NỘI THẤT MCS</t>
-  </si>
-  <si>
-    <t>1200001104</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ARTEX ĐỒNG THÁP</t>
-  </si>
-  <si>
-    <t>1200001109</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ XÂY DỰNG THIÊN ĐỊNH</t>
-  </si>
-  <si>
-    <t>1200001113</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XD SX TM DV AB</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>1200001114</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI TUÝP NHÔM THUẬN QUÂN</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>1200001118</t>
-  </si>
-  <si>
-    <t>Trân Trân</t>
-  </si>
-  <si>
-    <t>1200001119</t>
-  </si>
-  <si>
-    <t>VŨ ĐÌNH DŨNG</t>
-  </si>
-  <si>
-    <t>1200001123</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN TÀI TRÍ</t>
-  </si>
-  <si>
-    <t>1200001125</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH TRẦN QUÝ</t>
-  </si>
-  <si>
-    <t>1200001133</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KIM THƯ FURNITURE</t>
-  </si>
-  <si>
-    <t>1200001143</t>
-  </si>
-  <si>
-    <t>VÕ CÔNG QUANG</t>
-  </si>
-  <si>
-    <t>1200001144</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH BUÔN LÊ COFFEE</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>1300000016</t>
-  </si>
-  <si>
-    <t>QUALITY IMAGE SDN BHD</t>
-  </si>
-  <si>
-    <t>1200000974</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CAO VÕ</t>
-  </si>
-  <si>
-    <t>1200001004</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
-  </si>
-  <si>
-    <t>1200000820</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
-  </si>
-  <si>
-    <t>1200000959</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ GỖ HOÀNG PHÁT</t>
-  </si>
-  <si>
-    <t>1200001015</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN XÂY DỰNG THƯƠNG MẠI VÀ TRANG TRÍ NỘI THẤT THÀNH PHÁT</t>
-  </si>
-  <si>
-    <t>1200000812</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN NIEMEN TEHTAAT VIỆT NAM</t>
-  </si>
-  <si>
-    <t>1200000470</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH MTV MIRAMAR</t>
-  </si>
-  <si>
-    <t>1200001070</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH QUÂN THÚY</t>
-  </si>
-  <si>
-    <t>1200000861</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XÂY DỰNG VÀ THƯƠNG MẠI AN PHỤNG</t>
-  </si>
-  <si>
-    <t>1200001059</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN XÂY DỰNG - THƯƠNG MẠI - NỘI THẤT HH</t>
-  </si>
-  <si>
-    <t>1200001136</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH NỘI THẤT TÂM CASA</t>
-  </si>
-  <si>
-    <t>1200001138</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN I-STAR ANIMATRONIC</t>
-  </si>
-  <si>
-    <t>1200001124</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MTV HOÀNG MINH TUẤN</t>
+    <t>1200001147</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ XÂY DỰNG NỘI THẤT ĐẠI NAM</t>
+  </si>
+  <si>
+    <t>1200000054</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Xây Dựng Ngô Gia</t>
+  </si>
+  <si>
+    <t>1200001027</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TTK FURNITURE</t>
+  </si>
+  <si>
+    <t>1200001060</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG - NỘI THẤT TRUNG ĐÔ</t>
+  </si>
+  <si>
+    <t>1200000231</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XT</t>
+  </si>
+  <si>
+    <t>1200000891</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SẢN XUẤT NỘI THẤT ICON</t>
+  </si>
+  <si>
+    <t>1200000743</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH NỘI THẤT MINH HƯNG</t>
   </si>
   <si>
     <t>Company Code</t>
@@ -1199,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y105"/>
+  <dimension ref="A1:Y113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1223,8 +1271,7 @@
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
@@ -1234,79 +1281,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1442,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>227142392</v>
       </c>
       <c r="T3" s="2">
         <v>361088859</v>
@@ -1460,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>361088859</v>
+        <v>588231251</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1519,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>136138968</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -1537,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <v>0</v>
+        <v>136138968</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1670,10 +1717,10 @@
         <v>636003792</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>119601792</v>
       </c>
       <c r="S6" s="2">
-        <v>391739760</v>
+        <v>636003792</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
@@ -1691,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>391739760</v>
+        <v>755605584</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1750,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>31539456</v>
       </c>
       <c r="T7" s="2">
         <v>106074058</v>
@@ -1768,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>106074058</v>
+        <v>137613514</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -2058,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>577850347</v>
       </c>
       <c r="T11" s="2">
-        <v>1007691253</v>
+        <v>1059693817</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2076,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>1007691253</v>
+        <v>1637544164</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2369,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>1719219433</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -2384,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>0</v>
+        <v>1719219433</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -2520,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>373119696</v>
+        <v>529649496</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -2538,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="2">
-        <v>373119696</v>
+        <v>529649496</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2597,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>47299334</v>
+        <v>66210134</v>
       </c>
       <c r="T18" s="2">
         <v>0</v>
@@ -2615,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="2">
-        <v>47299334</v>
+        <v>66210134</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -2751,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>252400806</v>
+        <v>331638786</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -2769,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <v>252400806</v>
+        <v>331638786</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -2902,10 +2949,10 @@
         <v>234455601</v>
       </c>
       <c r="R22" s="2">
-        <v>0</v>
+        <v>48810902</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>185644699</v>
       </c>
       <c r="T22" s="2">
         <v>0</v>
@@ -2923,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <v>0</v>
+        <v>234455601</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -3343,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="2">
-        <v>11594111</v>
+        <v>23165915</v>
       </c>
       <c r="L28" s="2">
         <v>2440800</v>
@@ -3361,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>14034911</v>
+        <v>25606715</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>11452238</v>
+        <v>12601408</v>
       </c>
       <c r="T28" s="2">
         <v>2440800</v>
@@ -3385,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>13893038</v>
+        <v>15042208</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -3678,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <v>1526797529</v>
+        <v>2326209077</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -3693,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>1526797529</v>
+        <v>2326209077</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -3728,7 +3775,7 @@
         <v>9</v>
       </c>
       <c r="K33" s="2">
-        <v>85058985</v>
+        <v>135819849</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -3746,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <v>85058985</v>
+        <v>135819849</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>9923040</v>
+        <v>42006902</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -3770,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>9923040</v>
+        <v>42006902</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4294,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <v>200000000</v>
+        <v>258795087</v>
       </c>
       <c r="U40" s="2">
-        <v>0</v>
+        <v>61204913</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
@@ -4309,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>200000000</v>
+        <v>320000000</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -4368,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>143113239</v>
+        <v>197250189</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -4386,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2">
-        <v>143113239</v>
+        <v>197250189</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -4522,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>219725897</v>
+        <v>384461246</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -4540,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>219725897</v>
+        <v>384461246</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -4812,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>-458131</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
@@ -4824,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="2">
-        <v>8404773</v>
+        <v>8862904</v>
       </c>
       <c r="R47" s="2">
-        <v>0</v>
+        <v>5457947</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>9149321</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -4848,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <v>0</v>
+        <v>14607268</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -4942,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
         <v>81</v>
@@ -4960,25 +5007,25 @@
         <v>9</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>8553717</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>38598624</v>
       </c>
       <c r="M49" s="2">
-        <v>-840131</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>5064037</v>
       </c>
       <c r="O49" s="2">
-        <v>0</v>
+        <v>42755331</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>-840131</v>
+        <v>94971709</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5019,13 +5066,13 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="H50" t="s">
         <v>141</v>
@@ -5037,25 +5084,25 @@
         <v>9</v>
       </c>
       <c r="K50" s="2">
-        <v>8553717</v>
+        <v>23064694</v>
       </c>
       <c r="L50" s="2">
-        <v>38598624</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
       </c>
       <c r="N50" s="2">
-        <v>5064037</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>42755331</v>
+        <v>0</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <v>94971709</v>
+        <v>23064694</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
@@ -5090,31 +5137,31 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J51" t="s">
         <v>9</v>
       </c>
       <c r="K51" s="2">
-        <v>23064694</v>
+        <v>54874800</v>
       </c>
       <c r="L51" s="2">
         <v>0</v>
@@ -5132,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>23064694</v>
+        <v>54874800</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5167,19 +5214,19 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
         <v>146</v>
@@ -5191,10 +5238,10 @@
         <v>9</v>
       </c>
       <c r="K52" s="2">
-        <v>54874800</v>
+        <v>304812288</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>143665920</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -5209,16 +5256,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>54874800</v>
+        <v>448478208</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <v>0</v>
+        <v>26682048</v>
       </c>
       <c r="T52" s="2">
-        <v>0</v>
+        <v>143665920</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -5233,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <v>0</v>
+        <v>170347968</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -5244,19 +5291,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="H53" t="s">
         <v>148</v>
@@ -5268,10 +5315,10 @@
         <v>9</v>
       </c>
       <c r="K53" s="2">
-        <v>304812288</v>
+        <v>31110202</v>
       </c>
       <c r="L53" s="2">
-        <v>143665920</v>
+        <v>0</v>
       </c>
       <c r="M53" s="2">
         <v>0</v>
@@ -5286,16 +5333,16 @@
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>448478208</v>
+        <v>31110202</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <v>26682048</v>
+        <v>31110202</v>
       </c>
       <c r="T53" s="2">
-        <v>143665920</v>
+        <v>0</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
@@ -5310,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2">
-        <v>170347968</v>
+        <v>31110202</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -5330,10 +5377,10 @@
         <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s">
         <v>150</v>
@@ -5345,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="K54" s="2">
-        <v>31110202</v>
+        <v>3880646</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -5363,13 +5410,13 @@
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <v>31110202</v>
+        <v>3880646</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>31110202</v>
+        <v>0</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -5387,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>31110202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -5404,13 +5451,13 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
         <v>152</v>
@@ -5422,7 +5469,7 @@
         <v>9</v>
       </c>
       <c r="K55" s="2">
-        <v>3880646</v>
+        <v>22253189</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
@@ -5440,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="2">
-        <v>3880646</v>
+        <v>22253189</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
@@ -5475,19 +5522,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s">
         <v>154</v>
@@ -5499,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="K56" s="2">
-        <v>22253189</v>
+        <v>277171200</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
@@ -5517,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <v>22253189</v>
+        <v>277171200</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <v>0</v>
+        <v>176601600</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
@@ -5541,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="2">
-        <v>0</v>
+        <v>176601600</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -5552,19 +5599,19 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="H57" t="s">
         <v>156</v>
@@ -5576,13 +5623,13 @@
         <v>9</v>
       </c>
       <c r="K57" s="2">
-        <v>277171200</v>
+        <v>27111603</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
@@ -5594,19 +5641,19 @@
         <v>0</v>
       </c>
       <c r="Q57" s="2">
-        <v>277171200</v>
+        <v>80991069</v>
       </c>
       <c r="R57" s="2">
         <v>0</v>
       </c>
       <c r="S57" s="2">
-        <v>0</v>
+        <v>26681633</v>
       </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
       <c r="U57" s="2">
-        <v>0</v>
+        <v>53879466</v>
       </c>
       <c r="V57" s="2">
         <v>0</v>
@@ -5618,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="2">
-        <v>0</v>
+        <v>80561099</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -5629,19 +5676,19 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s">
         <v>158</v>
@@ -5653,13 +5700,13 @@
         <v>9</v>
       </c>
       <c r="K58" s="2">
-        <v>27111603</v>
+        <v>50388480</v>
       </c>
       <c r="L58" s="2">
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
@@ -5671,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <v>80991069</v>
+        <v>50388480</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
@@ -5683,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
       <c r="V58" s="2">
         <v>0</v>
@@ -5695,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="2">
-        <v>53879466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -5712,13 +5759,13 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s">
         <v>160</v>
@@ -5730,10 +5777,10 @@
         <v>9</v>
       </c>
       <c r="K59" s="2">
-        <v>50388480</v>
+        <v>103815691</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
+        <v>103753094</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
@@ -5748,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="2">
-        <v>50388480</v>
+        <v>207568785</v>
       </c>
       <c r="R59" s="2">
         <v>0</v>
@@ -5783,19 +5830,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="H60" t="s">
         <v>162</v>
@@ -5807,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="K60" s="2">
-        <v>103815691</v>
+        <v>6469670</v>
       </c>
       <c r="L60" s="2">
-        <v>103753094</v>
+        <v>0</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
@@ -5825,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <v>207568785</v>
+        <v>6469670</v>
       </c>
       <c r="R60" s="2">
         <v>0</v>
@@ -6014,19 +6061,19 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="H63" t="s">
         <v>168</v>
@@ -6038,10 +6085,10 @@
         <v>9</v>
       </c>
       <c r="K63" s="2">
-        <v>0</v>
+        <v>394925760</v>
       </c>
       <c r="L63" s="2">
-        <v>869498</v>
+        <v>95283648</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -6056,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="Q63" s="2">
-        <v>869498</v>
+        <v>490209408</v>
       </c>
       <c r="R63" s="2">
         <v>0</v>
       </c>
       <c r="S63" s="2">
-        <v>0</v>
+        <v>222991920</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
@@ -6080,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="2">
-        <v>0</v>
+        <v>222991920</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -6091,34 +6138,34 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" t="s">
         <v>170</v>
       </c>
-      <c r="G64" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>171</v>
       </c>
-      <c r="I64" t="s">
-        <v>172</v>
-      </c>
       <c r="J64" t="s">
         <v>9</v>
       </c>
       <c r="K64" s="2">
-        <v>0</v>
+        <v>15087916</v>
       </c>
       <c r="L64" s="2">
-        <v>150120</v>
+        <v>14786158</v>
       </c>
       <c r="M64" s="2">
         <v>0</v>
@@ -6133,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="2">
-        <v>150120</v>
+        <v>29874074</v>
       </c>
       <c r="R64" s="2">
         <v>0</v>
@@ -6177,25 +6224,25 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="G65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J65" t="s">
         <v>9</v>
       </c>
       <c r="K65" s="2">
-        <v>394925760</v>
+        <v>354240</v>
       </c>
       <c r="L65" s="2">
-        <v>95283648</v>
+        <v>0</v>
       </c>
       <c r="M65" s="2">
         <v>0</v>
@@ -6210,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <v>490209408</v>
+        <v>354240</v>
       </c>
       <c r="R65" s="2">
         <v>0</v>
@@ -6245,19 +6292,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s">
         <v>173</v>
@@ -6269,10 +6316,10 @@
         <v>9</v>
       </c>
       <c r="K66" s="2">
-        <v>15087916</v>
+        <v>86512752</v>
       </c>
       <c r="L66" s="2">
-        <v>14786158</v>
+        <v>0</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
@@ -6287,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="Q66" s="2">
-        <v>29874074</v>
+        <v>86512752</v>
       </c>
       <c r="R66" s="2">
         <v>0</v>
       </c>
       <c r="S66" s="2">
-        <v>0</v>
+        <v>46813680</v>
       </c>
       <c r="T66" s="2">
         <v>0</v>
@@ -6311,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="2">
-        <v>0</v>
+        <v>46813680</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
@@ -6331,10 +6378,10 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
         <v>175</v>
@@ -6346,10 +6393,10 @@
         <v>9</v>
       </c>
       <c r="K67" s="2">
-        <v>354240</v>
+        <v>245569000</v>
       </c>
       <c r="L67" s="2">
-        <v>0</v>
+        <v>214508200</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
@@ -6364,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="2">
-        <v>354240</v>
+        <v>460077200</v>
       </c>
       <c r="R67" s="2">
         <v>0</v>
@@ -6408,25 +6455,25 @@
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="H68" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I68" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J68" t="s">
         <v>9</v>
       </c>
       <c r="K68" s="2">
-        <v>86512752</v>
+        <v>35977392</v>
       </c>
       <c r="L68" s="2">
-        <v>0</v>
+        <v>45515952</v>
       </c>
       <c r="M68" s="2">
         <v>0</v>
@@ -6441,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="Q68" s="2">
-        <v>86512752</v>
+        <v>81493344</v>
       </c>
       <c r="R68" s="2">
         <v>0</v>
       </c>
       <c r="S68" s="2">
-        <v>46813680</v>
+        <v>0</v>
       </c>
       <c r="T68" s="2">
         <v>0</v>
@@ -6465,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="2">
-        <v>46813680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
@@ -6485,25 +6532,25 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I69" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J69" t="s">
         <v>9</v>
       </c>
       <c r="K69" s="2">
-        <v>245569000</v>
+        <v>708209568</v>
       </c>
       <c r="L69" s="2">
-        <v>214508200</v>
+        <v>0</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
@@ -6518,13 +6565,13 @@
         <v>0</v>
       </c>
       <c r="Q69" s="2">
-        <v>460077200</v>
+        <v>708209568</v>
       </c>
       <c r="R69" s="2">
         <v>0</v>
       </c>
       <c r="S69" s="2">
-        <v>0</v>
+        <v>444677040</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -6542,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="2">
-        <v>0</v>
+        <v>444677040</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -6553,34 +6600,34 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F70" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="H70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J70" t="s">
         <v>9</v>
       </c>
       <c r="K70" s="2">
-        <v>35977392</v>
+        <v>10235715</v>
       </c>
       <c r="L70" s="2">
-        <v>45515952</v>
+        <v>8519043</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -6589,13 +6636,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="2">
-        <v>0</v>
+        <v>44470499</v>
       </c>
       <c r="P70" s="2">
         <v>0</v>
       </c>
       <c r="Q70" s="2">
-        <v>81493344</v>
+        <v>63225257</v>
       </c>
       <c r="R70" s="2">
         <v>0</v>
@@ -6613,13 +6660,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="2">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="X70" s="2">
         <v>0</v>
       </c>
       <c r="Y70" s="2">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
@@ -6630,31 +6677,31 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J71" t="s">
         <v>9</v>
       </c>
       <c r="K71" s="2">
-        <v>708209568</v>
+        <v>20741602</v>
       </c>
       <c r="L71" s="2">
         <v>0</v>
@@ -6672,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <v>708209568</v>
+        <v>20741602</v>
       </c>
       <c r="R71" s="2">
         <v>0</v>
       </c>
       <c r="S71" s="2">
-        <v>102118320</v>
+        <v>13991522</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -6696,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="2">
-        <v>102118320</v>
+        <v>13991522</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -6707,49 +6754,49 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I72" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J72" t="s">
         <v>9</v>
       </c>
       <c r="K72" s="2">
-        <v>10235715</v>
+        <v>0</v>
       </c>
       <c r="L72" s="2">
-        <v>8519043</v>
+        <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>0</v>
+        <v>6301584</v>
       </c>
       <c r="N72" s="2">
         <v>0</v>
       </c>
       <c r="O72" s="2">
-        <v>44470499</v>
+        <v>0</v>
       </c>
       <c r="P72" s="2">
         <v>0</v>
       </c>
       <c r="Q72" s="2">
-        <v>63225257</v>
+        <v>6301584</v>
       </c>
       <c r="R72" s="2">
         <v>0</v>
@@ -6761,19 +6808,19 @@
         <v>0</v>
       </c>
       <c r="U72" s="2">
-        <v>0</v>
+        <v>6301584</v>
       </c>
       <c r="V72" s="2">
         <v>0</v>
       </c>
       <c r="W72" s="2">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="X72" s="2">
         <v>0</v>
       </c>
       <c r="Y72" s="2">
-        <v>15000000</v>
+        <v>6301584</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -6790,25 +6837,25 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="H73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J73" t="s">
         <v>9</v>
       </c>
       <c r="K73" s="2">
-        <v>20741602</v>
+        <v>5581440</v>
       </c>
       <c r="L73" s="2">
         <v>0</v>
@@ -6826,13 +6873,13 @@
         <v>0</v>
       </c>
       <c r="Q73" s="2">
-        <v>20741602</v>
+        <v>5581440</v>
       </c>
       <c r="R73" s="2">
-        <v>0</v>
+        <v>111629</v>
       </c>
       <c r="S73" s="2">
-        <v>13991522</v>
+        <v>5581440</v>
       </c>
       <c r="T73" s="2">
         <v>0</v>
@@ -6850,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="2">
-        <v>13991522</v>
+        <v>5693069</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -6861,37 +6908,37 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="H74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J74" t="s">
         <v>9</v>
       </c>
       <c r="K74" s="2">
-        <v>0</v>
+        <v>8293106</v>
       </c>
       <c r="L74" s="2">
-        <v>0</v>
+        <v>8973326</v>
       </c>
       <c r="M74" s="2">
-        <v>6301584</v>
+        <v>0</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -6903,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="2">
-        <v>6301584</v>
+        <v>17266432</v>
       </c>
       <c r="R74" s="2">
         <v>0</v>
@@ -6915,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="2">
-        <v>6301584</v>
+        <v>0</v>
       </c>
       <c r="V74" s="2">
         <v>0</v>
@@ -6927,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="2">
-        <v>6301584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
@@ -6947,28 +6994,28 @@
         <v>80</v>
       </c>
       <c r="F75" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J75" t="s">
         <v>9</v>
       </c>
       <c r="K75" s="2">
-        <v>5581440</v>
+        <v>0</v>
       </c>
       <c r="L75" s="2">
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <v>0</v>
+        <v>15582617</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -6977,16 +7024,16 @@
         <v>0</v>
       </c>
       <c r="P75" s="2">
-        <v>0</v>
+        <v>6181387</v>
       </c>
       <c r="Q75" s="2">
-        <v>5581440</v>
+        <v>21764004</v>
       </c>
       <c r="R75" s="2">
-        <v>111629</v>
+        <v>0</v>
       </c>
       <c r="S75" s="2">
-        <v>5581440</v>
+        <v>0</v>
       </c>
       <c r="T75" s="2">
         <v>0</v>
@@ -7004,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="2">
-        <v>5693069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
@@ -7015,34 +7062,34 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J76" t="s">
         <v>9</v>
       </c>
       <c r="K76" s="2">
-        <v>8293106</v>
+        <v>227578032</v>
       </c>
       <c r="L76" s="2">
-        <v>8973326</v>
+        <v>43138224</v>
       </c>
       <c r="M76" s="2">
         <v>0</v>
@@ -7057,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="2">
-        <v>17266432</v>
+        <v>270716256</v>
       </c>
       <c r="R76" s="2">
         <v>0</v>
@@ -7066,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <v>0</v>
+        <v>43138224</v>
       </c>
       <c r="U76" s="2">
         <v>0</v>
@@ -7081,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="2">
-        <v>0</v>
+        <v>43138224</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
@@ -7092,37 +7139,37 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="H77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J77" t="s">
         <v>9</v>
       </c>
       <c r="K77" s="2">
-        <v>0</v>
+        <v>89640000</v>
       </c>
       <c r="L77" s="2">
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <v>15582617</v>
+        <v>0</v>
       </c>
       <c r="N77" s="2">
         <v>0</v>
@@ -7131,16 +7178,16 @@
         <v>0</v>
       </c>
       <c r="P77" s="2">
-        <v>6181387</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="2">
-        <v>21764004</v>
+        <v>89640000</v>
       </c>
       <c r="R77" s="2">
         <v>0</v>
       </c>
       <c r="S77" s="2">
-        <v>0</v>
+        <v>24900000</v>
       </c>
       <c r="T77" s="2">
         <v>0</v>
@@ -7158,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="Y77" s="2">
-        <v>0</v>
+        <v>24900000</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
@@ -7169,37 +7216,37 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="H78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J78" t="s">
         <v>9</v>
       </c>
       <c r="K78" s="2">
-        <v>227578032</v>
+        <v>45331549</v>
       </c>
       <c r="L78" s="2">
-        <v>43138224</v>
+        <v>0</v>
       </c>
       <c r="M78" s="2">
-        <v>0</v>
+        <v>62387128</v>
       </c>
       <c r="N78" s="2">
         <v>0</v>
@@ -7211,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2">
-        <v>270716256</v>
+        <v>107718677</v>
       </c>
       <c r="R78" s="2">
         <v>0</v>
@@ -7220,10 +7267,10 @@
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <v>43138224</v>
+        <v>0</v>
       </c>
       <c r="U78" s="2">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="V78" s="2">
         <v>0</v>
@@ -7235,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="2">
-        <v>43138224</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
@@ -7246,31 +7293,31 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F79" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="H79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J79" t="s">
         <v>9</v>
       </c>
       <c r="K79" s="2">
-        <v>89640000</v>
+        <v>112646274</v>
       </c>
       <c r="L79" s="2">
         <v>0</v>
@@ -7288,13 +7335,13 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2">
-        <v>89640000</v>
+        <v>112646274</v>
       </c>
       <c r="R79" s="2">
-        <v>0</v>
+        <v>5496140</v>
       </c>
       <c r="S79" s="2">
-        <v>24900000</v>
+        <v>86346309</v>
       </c>
       <c r="T79" s="2">
         <v>0</v>
@@ -7312,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="2">
-        <v>24900000</v>
+        <v>91842449</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
@@ -7323,37 +7370,37 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J80" t="s">
         <v>9</v>
       </c>
       <c r="K80" s="2">
-        <v>45331549</v>
+        <v>75600000</v>
       </c>
       <c r="L80" s="2">
         <v>0</v>
       </c>
       <c r="M80" s="2">
-        <v>62387128</v>
+        <v>0</v>
       </c>
       <c r="N80" s="2">
         <v>0</v>
@@ -7365,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="Q80" s="2">
-        <v>107718677</v>
+        <v>75600000</v>
       </c>
       <c r="R80" s="2">
         <v>0</v>
       </c>
       <c r="S80" s="2">
-        <v>0</v>
+        <v>75600000</v>
       </c>
       <c r="T80" s="2">
         <v>0</v>
@@ -7389,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="2">
-        <v>0</v>
+        <v>75600000</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
@@ -7406,28 +7453,28 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="F81" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I81" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J81" t="s">
         <v>9</v>
       </c>
       <c r="K81" s="2">
-        <v>112646274</v>
+        <v>1446702</v>
       </c>
       <c r="L81" s="2">
-        <v>0</v>
+        <v>24638</v>
       </c>
       <c r="M81" s="2">
         <v>0</v>
@@ -7442,13 +7489,13 @@
         <v>0</v>
       </c>
       <c r="Q81" s="2">
-        <v>112646274</v>
+        <v>1471340</v>
       </c>
       <c r="R81" s="2">
-        <v>0</v>
+        <v>2552222</v>
       </c>
       <c r="S81" s="2">
-        <v>66308248</v>
+        <v>641543</v>
       </c>
       <c r="T81" s="2">
         <v>0</v>
@@ -7466,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="2">
-        <v>66308248</v>
+        <v>3193765</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -7477,31 +7524,31 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I82" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J82" t="s">
         <v>9</v>
       </c>
       <c r="K82" s="2">
-        <v>75600000</v>
+        <v>11840521</v>
       </c>
       <c r="L82" s="2">
         <v>0</v>
@@ -7519,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="2">
-        <v>75600000</v>
+        <v>11840521</v>
       </c>
       <c r="R82" s="2">
         <v>0</v>
@@ -7560,28 +7607,28 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G83" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J83" t="s">
         <v>9</v>
       </c>
       <c r="K83" s="2">
-        <v>1446702</v>
+        <v>6514266</v>
       </c>
       <c r="L83" s="2">
-        <v>24638</v>
+        <v>0</v>
       </c>
       <c r="M83" s="2">
         <v>0</v>
@@ -7596,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="Q83" s="2">
-        <v>1471340</v>
+        <v>6514266</v>
       </c>
       <c r="R83" s="2">
-        <v>1784221</v>
+        <v>0</v>
       </c>
       <c r="S83" s="2">
-        <v>641543</v>
+        <v>0</v>
       </c>
       <c r="T83" s="2">
         <v>0</v>
@@ -7620,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="2">
-        <v>2425764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
@@ -7640,22 +7687,22 @@
         <v>80</v>
       </c>
       <c r="F84" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G84" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J84" t="s">
         <v>9</v>
       </c>
       <c r="K84" s="2">
-        <v>11840521</v>
+        <v>6293384</v>
       </c>
       <c r="L84" s="2">
         <v>0</v>
@@ -7673,13 +7720,13 @@
         <v>0</v>
       </c>
       <c r="Q84" s="2">
-        <v>11840521</v>
+        <v>6293384</v>
       </c>
       <c r="R84" s="2">
         <v>0</v>
       </c>
       <c r="S84" s="2">
-        <v>0</v>
+        <v>6293384</v>
       </c>
       <c r="T84" s="2">
         <v>0</v>
@@ -7697,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="2">
-        <v>0</v>
+        <v>6293384</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -7708,31 +7755,31 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J85" t="s">
         <v>9</v>
       </c>
       <c r="K85" s="2">
-        <v>6514266</v>
+        <v>52071984</v>
       </c>
       <c r="L85" s="2">
         <v>0</v>
@@ -7750,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="2">
-        <v>6514266</v>
+        <v>52071984</v>
       </c>
       <c r="R85" s="2">
         <v>0</v>
@@ -7791,25 +7838,25 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J86" t="s">
         <v>9</v>
       </c>
       <c r="K86" s="2">
-        <v>6293384</v>
+        <v>94416395</v>
       </c>
       <c r="L86" s="2">
         <v>0</v>
@@ -7827,13 +7874,13 @@
         <v>0</v>
       </c>
       <c r="Q86" s="2">
-        <v>6293384</v>
+        <v>94416395</v>
       </c>
       <c r="R86" s="2">
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <v>6293384</v>
+        <v>86100944</v>
       </c>
       <c r="T86" s="2">
         <v>0</v>
@@ -7851,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="2">
-        <v>6293384</v>
+        <v>86100944</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -7868,25 +7915,25 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="F87" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I87" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J87" t="s">
         <v>9</v>
       </c>
       <c r="K87" s="2">
-        <v>52071984</v>
+        <v>520636036</v>
       </c>
       <c r="L87" s="2">
         <v>0</v>
@@ -7904,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2">
-        <v>52071984</v>
+        <v>520636036</v>
       </c>
       <c r="R87" s="2">
         <v>0</v>
@@ -7945,7 +7992,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="F88" t="s">
         <v>81</v>
@@ -7954,22 +8001,22 @@
         <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I88" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J88" t="s">
         <v>9</v>
       </c>
       <c r="K88" s="2">
-        <v>36258561</v>
+        <v>0</v>
       </c>
       <c r="L88" s="2">
-        <v>31735068</v>
+        <v>0</v>
       </c>
       <c r="M88" s="2">
-        <v>0</v>
+        <v>-840131</v>
       </c>
       <c r="N88" s="2">
         <v>0</v>
@@ -7981,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="Q88" s="2">
-        <v>67993629</v>
+        <v>-840131</v>
       </c>
       <c r="R88" s="2">
-        <v>0</v>
+        <v>107066475</v>
       </c>
       <c r="S88" s="2">
         <v>0</v>
@@ -8005,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="2">
-        <v>0</v>
+        <v>107066475</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -8022,25 +8069,25 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J89" t="s">
         <v>9</v>
       </c>
       <c r="K89" s="2">
-        <v>76946961</v>
+        <v>-913478</v>
       </c>
       <c r="L89" s="2">
         <v>0</v>
@@ -8049,22 +8096,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="2">
-        <v>0</v>
+        <v>-913478</v>
       </c>
       <c r="O89" s="2">
-        <v>0</v>
+        <v>-137670</v>
       </c>
       <c r="P89" s="2">
         <v>0</v>
       </c>
       <c r="Q89" s="2">
-        <v>76946961</v>
+        <v>-1964626</v>
       </c>
       <c r="R89" s="2">
         <v>0</v>
       </c>
       <c r="S89" s="2">
-        <v>56402906</v>
+        <v>0</v>
       </c>
       <c r="T89" s="2">
         <v>0</v>
@@ -8082,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="2">
-        <v>56402906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -8093,31 +8140,31 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I90" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J90" t="s">
         <v>9</v>
       </c>
       <c r="K90" s="2">
-        <v>520636036</v>
+        <v>0</v>
       </c>
       <c r="L90" s="2">
         <v>0</v>
@@ -8132,10 +8179,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="2">
-        <v>0</v>
+        <v>-403920</v>
       </c>
       <c r="Q90" s="2">
-        <v>520636036</v>
+        <v>-403920</v>
       </c>
       <c r="R90" s="2">
         <v>0</v>
@@ -8170,31 +8217,31 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J91" t="s">
         <v>9</v>
       </c>
       <c r="K91" s="2">
-        <v>-913478</v>
+        <v>18668880</v>
       </c>
       <c r="L91" s="2">
         <v>0</v>
@@ -8203,22 +8250,22 @@
         <v>0</v>
       </c>
       <c r="N91" s="2">
-        <v>-913478</v>
+        <v>0</v>
       </c>
       <c r="O91" s="2">
-        <v>-137670</v>
+        <v>0</v>
       </c>
       <c r="P91" s="2">
         <v>0</v>
       </c>
       <c r="Q91" s="2">
-        <v>-1964626</v>
+        <v>18668880</v>
       </c>
       <c r="R91" s="2">
         <v>0</v>
       </c>
       <c r="S91" s="2">
-        <v>0</v>
+        <v>18668880</v>
       </c>
       <c r="T91" s="2">
         <v>0</v>
@@ -8236,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="Y91" s="2">
-        <v>0</v>
+        <v>18668880</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -8247,31 +8294,31 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J92" t="s">
         <v>9</v>
       </c>
       <c r="K92" s="2">
-        <v>0</v>
+        <v>13588560</v>
       </c>
       <c r="L92" s="2">
         <v>0</v>
@@ -8286,16 +8333,16 @@
         <v>0</v>
       </c>
       <c r="P92" s="2">
-        <v>-403920</v>
+        <v>0</v>
       </c>
       <c r="Q92" s="2">
-        <v>-403920</v>
+        <v>13588560</v>
       </c>
       <c r="R92" s="2">
         <v>0</v>
       </c>
       <c r="S92" s="2">
-        <v>0</v>
+        <v>13588560</v>
       </c>
       <c r="T92" s="2">
         <v>0</v>
@@ -8313,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="Y92" s="2">
-        <v>0</v>
+        <v>13588560</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -8333,22 +8380,22 @@
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I93" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J93" t="s">
         <v>9</v>
       </c>
       <c r="K93" s="2">
-        <v>8588160</v>
+        <v>37779264</v>
       </c>
       <c r="L93" s="2">
         <v>0</v>
@@ -8366,13 +8413,13 @@
         <v>0</v>
       </c>
       <c r="Q93" s="2">
-        <v>8588160</v>
+        <v>37779264</v>
       </c>
       <c r="R93" s="2">
         <v>0</v>
       </c>
       <c r="S93" s="2">
-        <v>8588160</v>
+        <v>37779264</v>
       </c>
       <c r="T93" s="2">
         <v>0</v>
@@ -8390,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="Y93" s="2">
-        <v>8588160</v>
+        <v>37779264</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
@@ -8410,22 +8457,22 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J94" t="s">
         <v>9</v>
       </c>
       <c r="K94" s="2">
-        <v>13588560</v>
+        <v>1935360</v>
       </c>
       <c r="L94" s="2">
         <v>0</v>
@@ -8443,13 +8490,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="2">
-        <v>13588560</v>
+        <v>1935360</v>
       </c>
       <c r="R94" s="2">
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <v>13588560</v>
+        <v>1935360</v>
       </c>
       <c r="T94" s="2">
         <v>0</v>
@@ -8467,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="2">
-        <v>13588560</v>
+        <v>1935360</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
@@ -8478,31 +8525,31 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F95" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G95" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I95" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J95" t="s">
         <v>9</v>
       </c>
       <c r="K95" s="2">
-        <v>8359200</v>
+        <v>7318080</v>
       </c>
       <c r="L95" s="2">
         <v>0</v>
@@ -8520,13 +8567,13 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2">
-        <v>8359200</v>
+        <v>7318080</v>
       </c>
       <c r="R95" s="2">
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <v>8359200</v>
+        <v>7318080</v>
       </c>
       <c r="T95" s="2">
         <v>0</v>
@@ -8544,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="2">
-        <v>8359200</v>
+        <v>7318080</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -8555,31 +8602,31 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="H96" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J96" t="s">
         <v>9</v>
       </c>
       <c r="K96" s="2">
-        <v>1935360</v>
+        <v>4814059</v>
       </c>
       <c r="L96" s="2">
         <v>0</v>
@@ -8597,13 +8644,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="2">
-        <v>1935360</v>
+        <v>4814059</v>
       </c>
       <c r="R96" s="2">
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <v>1935360</v>
+        <v>4814059</v>
       </c>
       <c r="T96" s="2">
         <v>0</v>
@@ -8621,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="2">
-        <v>1935360</v>
+        <v>4814059</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -8638,7 +8685,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="F97" t="s">
         <v>71</v>
@@ -8647,16 +8694,16 @@
         <v>72</v>
       </c>
       <c r="H97" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I97" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J97" t="s">
         <v>9</v>
       </c>
       <c r="K97" s="2">
-        <v>7318080</v>
+        <v>12780220</v>
       </c>
       <c r="L97" s="2">
         <v>0</v>
@@ -8674,13 +8721,13 @@
         <v>0</v>
       </c>
       <c r="Q97" s="2">
-        <v>7318080</v>
+        <v>12780220</v>
       </c>
       <c r="R97" s="2">
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <v>7318080</v>
+        <v>12780220</v>
       </c>
       <c r="T97" s="2">
         <v>0</v>
@@ -8698,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="2">
-        <v>7318080</v>
+        <v>12780220</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
@@ -8709,31 +8756,31 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H98" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J98" t="s">
         <v>9</v>
       </c>
       <c r="K98" s="2">
-        <v>4814059</v>
+        <v>15970608</v>
       </c>
       <c r="L98" s="2">
         <v>0</v>
@@ -8751,13 +8798,13 @@
         <v>0</v>
       </c>
       <c r="Q98" s="2">
-        <v>4814059</v>
+        <v>15970608</v>
       </c>
       <c r="R98" s="2">
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <v>4814059</v>
+        <v>15970608</v>
       </c>
       <c r="T98" s="2">
         <v>0</v>
@@ -8775,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="2">
-        <v>4814059</v>
+        <v>15970608</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -8786,31 +8833,31 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I99" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J99" t="s">
         <v>9</v>
       </c>
       <c r="K99" s="2">
-        <v>10200000</v>
+        <v>3361824</v>
       </c>
       <c r="L99" s="2">
         <v>0</v>
@@ -8828,13 +8875,13 @@
         <v>0</v>
       </c>
       <c r="Q99" s="2">
-        <v>10200000</v>
+        <v>3361824</v>
       </c>
       <c r="R99" s="2">
         <v>0</v>
       </c>
       <c r="S99" s="2">
-        <v>10200000</v>
+        <v>3361824</v>
       </c>
       <c r="T99" s="2">
         <v>0</v>
@@ -8852,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Y99" s="2">
-        <v>10200000</v>
+        <v>3361824</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -8872,22 +8919,22 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="H100" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J100" t="s">
         <v>9</v>
       </c>
       <c r="K100" s="2">
-        <v>15970608</v>
+        <v>4968000</v>
       </c>
       <c r="L100" s="2">
         <v>0</v>
@@ -8905,13 +8952,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="2">
-        <v>15970608</v>
+        <v>4968000</v>
       </c>
       <c r="R100" s="2">
         <v>0</v>
       </c>
       <c r="S100" s="2">
-        <v>15970608</v>
+        <v>4968000</v>
       </c>
       <c r="T100" s="2">
         <v>0</v>
@@ -8929,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="2">
-        <v>15970608</v>
+        <v>4968000</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -8946,25 +8993,25 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F101" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="G101" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="I101" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="J101" t="s">
         <v>9</v>
       </c>
       <c r="K101" s="2">
-        <v>3361824</v>
+        <v>3889080</v>
       </c>
       <c r="L101" s="2">
         <v>0</v>
@@ -8982,13 +9029,13 @@
         <v>0</v>
       </c>
       <c r="Q101" s="2">
-        <v>3361824</v>
+        <v>3889080</v>
       </c>
       <c r="R101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2">
-        <v>3361824</v>
+        <v>3889080</v>
       </c>
       <c r="T101" s="2">
         <v>0</v>
@@ -9006,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="2">
-        <v>3361824</v>
+        <v>3889080</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
@@ -9026,10 +9073,10 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H102" t="s">
         <v>248</v>
@@ -9041,10 +9088,10 @@
         <v>9</v>
       </c>
       <c r="K102" s="2">
-        <v>4968000</v>
+        <v>0</v>
       </c>
       <c r="L102" s="2">
-        <v>0</v>
+        <v>8756640</v>
       </c>
       <c r="M102" s="2">
         <v>0</v>
@@ -9059,16 +9106,16 @@
         <v>0</v>
       </c>
       <c r="Q102" s="2">
-        <v>4968000</v>
+        <v>8756640</v>
       </c>
       <c r="R102" s="2">
         <v>0</v>
       </c>
       <c r="S102" s="2">
-        <v>4968000</v>
+        <v>0</v>
       </c>
       <c r="T102" s="2">
-        <v>0</v>
+        <v>8756640</v>
       </c>
       <c r="U102" s="2">
         <v>0</v>
@@ -9083,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="2">
-        <v>4968000</v>
+        <v>8756640</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
@@ -9100,28 +9147,28 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G103" t="s">
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="I103" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="J103" t="s">
         <v>9</v>
       </c>
       <c r="K103" s="2">
-        <v>3889080</v>
+        <v>0</v>
       </c>
       <c r="L103" s="2">
-        <v>0</v>
+        <v>1287576</v>
       </c>
       <c r="M103" s="2">
         <v>0</v>
@@ -9136,16 +9183,16 @@
         <v>0</v>
       </c>
       <c r="Q103" s="2">
-        <v>3889080</v>
+        <v>1287576</v>
       </c>
       <c r="R103" s="2">
         <v>0</v>
       </c>
       <c r="S103" s="2">
-        <v>3889080</v>
+        <v>0</v>
       </c>
       <c r="T103" s="2">
-        <v>0</v>
+        <v>1287576</v>
       </c>
       <c r="U103" s="2">
         <v>0</v>
@@ -9160,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="2">
-        <v>3889080</v>
+        <v>1287576</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
@@ -9171,19 +9218,19 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="G104" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="H104" t="s">
         <v>250</v>
@@ -9195,10 +9242,10 @@
         <v>9</v>
       </c>
       <c r="K104" s="2">
-        <v>0</v>
+        <v>36258561</v>
       </c>
       <c r="L104" s="2">
-        <v>8756640</v>
+        <v>31735068</v>
       </c>
       <c r="M104" s="2">
         <v>0</v>
@@ -9213,16 +9260,16 @@
         <v>0</v>
       </c>
       <c r="Q104" s="2">
-        <v>8756640</v>
+        <v>67993629</v>
       </c>
       <c r="R104" s="2">
         <v>0</v>
       </c>
       <c r="S104" s="2">
-        <v>0</v>
+        <v>67993629</v>
       </c>
       <c r="T104" s="2">
-        <v>8756640</v>
+        <v>0</v>
       </c>
       <c r="U104" s="2">
         <v>0</v>
@@ -9237,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="2">
-        <v>8756640</v>
+        <v>67993629</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
@@ -9257,16 +9304,16 @@
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G105" t="s">
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="I105" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="J105" t="s">
         <v>9</v>
@@ -9275,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="2">
-        <v>1287576</v>
+        <v>150120</v>
       </c>
       <c r="M105" s="2">
         <v>0</v>
@@ -9290,16 +9337,16 @@
         <v>0</v>
       </c>
       <c r="Q105" s="2">
-        <v>1287576</v>
+        <v>150120</v>
       </c>
       <c r="R105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="2">
-        <v>0</v>
+        <v>150120</v>
       </c>
       <c r="T105" s="2">
-        <v>1287576</v>
+        <v>0</v>
       </c>
       <c r="U105" s="2">
         <v>0</v>
@@ -9314,11 +9361,627 @@
         <v>0</v>
       </c>
       <c r="Y105" s="2">
-        <v>1287576</v>
+        <v>150120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" t="s">
+        <v>101</v>
+      </c>
+      <c r="G106" t="s">
+        <v>102</v>
+      </c>
+      <c r="H106" t="s">
+        <v>252</v>
+      </c>
+      <c r="I106" t="s">
+        <v>253</v>
+      </c>
+      <c r="J106" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2">
+        <v>869498</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <v>0</v>
+      </c>
+      <c r="P106" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>869498</v>
+      </c>
+      <c r="R106" s="2">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2">
+        <v>0</v>
+      </c>
+      <c r="T106" s="2">
+        <v>869498</v>
+      </c>
+      <c r="U106" s="2">
+        <v>0</v>
+      </c>
+      <c r="V106" s="2">
+        <v>0</v>
+      </c>
+      <c r="W106" s="2">
+        <v>0</v>
+      </c>
+      <c r="X106" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="2">
+        <v>869498</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" t="s">
+        <v>72</v>
+      </c>
+      <c r="H107" t="s">
+        <v>254</v>
+      </c>
+      <c r="I107" t="s">
+        <v>255</v>
+      </c>
+      <c r="J107" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="2">
+        <v>3240000</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>3240000</v>
+      </c>
+      <c r="R107" s="2">
+        <v>0</v>
+      </c>
+      <c r="S107" s="2">
+        <v>3240000</v>
+      </c>
+      <c r="T107" s="2">
+        <v>0</v>
+      </c>
+      <c r="U107" s="2">
+        <v>0</v>
+      </c>
+      <c r="V107" s="2">
+        <v>0</v>
+      </c>
+      <c r="W107" s="2">
+        <v>0</v>
+      </c>
+      <c r="X107" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="2">
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
+        <v>256</v>
+      </c>
+      <c r="I108" t="s">
+        <v>257</v>
+      </c>
+      <c r="J108" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="2">
+        <v>34040736</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>34040736</v>
+      </c>
+      <c r="R108" s="2">
+        <v>0</v>
+      </c>
+      <c r="S108" s="2">
+        <v>34040736</v>
+      </c>
+      <c r="T108" s="2">
+        <v>0</v>
+      </c>
+      <c r="U108" s="2">
+        <v>0</v>
+      </c>
+      <c r="V108" s="2">
+        <v>0</v>
+      </c>
+      <c r="W108" s="2">
+        <v>0</v>
+      </c>
+      <c r="X108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="2">
+        <v>34040736</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>258</v>
+      </c>
+      <c r="I109" t="s">
+        <v>259</v>
+      </c>
+      <c r="J109" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="2">
+        <v>6963408</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>6963408</v>
+      </c>
+      <c r="R109" s="2">
+        <v>0</v>
+      </c>
+      <c r="S109" s="2">
+        <v>6963408</v>
+      </c>
+      <c r="T109" s="2">
+        <v>0</v>
+      </c>
+      <c r="U109" s="2">
+        <v>0</v>
+      </c>
+      <c r="V109" s="2">
+        <v>0</v>
+      </c>
+      <c r="W109" s="2">
+        <v>0</v>
+      </c>
+      <c r="X109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="2">
+        <v>6963408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110" t="s">
+        <v>260</v>
+      </c>
+      <c r="I110" t="s">
+        <v>261</v>
+      </c>
+      <c r="J110" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" s="2">
+        <v>7665840</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
+        <v>0</v>
+      </c>
+      <c r="P110" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>7665840</v>
+      </c>
+      <c r="R110" s="2">
+        <v>0</v>
+      </c>
+      <c r="S110" s="2">
+        <v>7665840</v>
+      </c>
+      <c r="T110" s="2">
+        <v>0</v>
+      </c>
+      <c r="U110" s="2">
+        <v>0</v>
+      </c>
+      <c r="V110" s="2">
+        <v>0</v>
+      </c>
+      <c r="W110" s="2">
+        <v>0</v>
+      </c>
+      <c r="X110" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="2">
+        <v>7665840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" t="s">
+        <v>262</v>
+      </c>
+      <c r="I111" t="s">
+        <v>263</v>
+      </c>
+      <c r="J111" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="2">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>0</v>
+      </c>
+      <c r="P111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>0</v>
+      </c>
+      <c r="R111" s="2">
+        <v>46449288</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111" s="2">
+        <v>0</v>
+      </c>
+      <c r="U111" s="2">
+        <v>0</v>
+      </c>
+      <c r="V111" s="2">
+        <v>0</v>
+      </c>
+      <c r="W111" s="2">
+        <v>0</v>
+      </c>
+      <c r="X111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="2">
+        <v>46449288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" t="s">
+        <v>264</v>
+      </c>
+      <c r="I112" t="s">
+        <v>265</v>
+      </c>
+      <c r="J112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
+        <v>0</v>
+      </c>
+      <c r="P112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>0</v>
+      </c>
+      <c r="R112" s="2">
+        <v>25040880</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0</v>
+      </c>
+      <c r="U112" s="2">
+        <v>0</v>
+      </c>
+      <c r="V112" s="2">
+        <v>0</v>
+      </c>
+      <c r="W112" s="2">
+        <v>0</v>
+      </c>
+      <c r="X112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="2">
+        <v>25040880</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>266</v>
+      </c>
+      <c r="I113" t="s">
+        <v>267</v>
+      </c>
+      <c r="J113" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="2">
+        <v>8884080</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
+        <v>0</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>8884080</v>
+      </c>
+      <c r="R113" s="2">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>8884080</v>
+      </c>
+      <c r="T113" s="2">
+        <v>0</v>
+      </c>
+      <c r="U113" s="2">
+        <v>0</v>
+      </c>
+      <c r="V113" s="2">
+        <v>0</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+      <c r="X113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="2">
+        <v>8884080</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y105"/>
+  <autoFilter ref="A1:Y113"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/demodata/ZRFI005.XLSX
+++ b/demodata/ZRFI005.XLSX
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$115</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="295">
   <si>
     <t>1000</t>
   </si>
@@ -261,465 +261,477 @@
     <t>Công Ty TNHH SKS Furniture</t>
   </si>
   <si>
+    <t>10888038</t>
+  </si>
+  <si>
+    <t>LIONG YAM CHYUAN</t>
+  </si>
+  <si>
+    <t>1200000524</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX XNK THƯƠNG MẠI SÁNG</t>
+  </si>
+  <si>
+    <t>1200000560</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX TM DV VĨNH TIẾN NGUYÊN</t>
+  </si>
+  <si>
+    <t>1200000613</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI VẠN CHÍNH</t>
+  </si>
+  <si>
+    <t>1200000649</t>
+  </si>
+  <si>
+    <t>CÔNG TY CP XÂY DỰNG KIẾN TRÚC AA TÂY NINH</t>
+  </si>
+  <si>
+    <t>1200000769</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN KIM MỘC</t>
+  </si>
+  <si>
+    <t>1200000786</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TIMBER PHOENIX</t>
+  </si>
+  <si>
+    <t>1200000795</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MILLENNIUM FURNITURE</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
+    <t>10810655</t>
+  </si>
+  <si>
+    <t>PHẠM BÍCH THỦY</t>
+  </si>
+  <si>
+    <t>1200000834</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM DV XD TĂNG PHI</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>10810746</t>
+  </si>
+  <si>
+    <t>LÊ VĂN TẤN</t>
+  </si>
+  <si>
+    <t>1200000839</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HỒNG ÂN</t>
+  </si>
+  <si>
+    <t>10811780</t>
+  </si>
+  <si>
+    <t>TẠ DUY HÀ</t>
+  </si>
+  <si>
+    <t>1200000841</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM KHANG</t>
+  </si>
+  <si>
+    <t>10811384</t>
+  </si>
+  <si>
+    <t>VÕ THANH TUẤN</t>
+  </si>
+  <si>
+    <t>1200000842</t>
+  </si>
+  <si>
+    <t>DOANH NGHIỆP TƯ NHÂN THANH SƯƠNG</t>
+  </si>
+  <si>
+    <t>1200000843</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CÔNG HẬU</t>
+  </si>
+  <si>
+    <t>1200000849</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH XÂY DỰNG THƯƠNG MẠI HOÀNG NGỌC THANH</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1200000850</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN KIM PHÚC PU</t>
+  </si>
+  <si>
+    <t>1200000851</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ PHẠM GIA TUẤN</t>
+  </si>
+  <si>
+    <t>1200000852</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG THIÊN HÀ PHÁT</t>
+  </si>
+  <si>
+    <t>10110766</t>
+  </si>
+  <si>
+    <t>PHẠM MINH SĨ</t>
+  </si>
+  <si>
+    <t>1200000854</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRẦN LIÊN HƯNG</t>
+  </si>
+  <si>
+    <t>1200000856</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
+  </si>
+  <si>
     <t>10810584</t>
   </si>
   <si>
     <t>TRẦN THỊ TUYẾT VÂN</t>
   </si>
   <si>
+    <t>1200000857</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DANH PHÁT</t>
+  </si>
+  <si>
+    <t>1200000859</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN SẢN XUẤT THƯƠNG MẠI LOUIS PHƯỚC THẠNH</t>
+  </si>
+  <si>
+    <t>1200000865</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VẬT LIỆU XÂY DỰNG NGỌC THANH MINH</t>
+  </si>
+  <si>
+    <t>1200000876</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN HOÀNG HÀ</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>1200000882</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ XÂY DỰNG VÀ CÔNG NGHỆ SÀN SƠN PHÁT</t>
+  </si>
+  <si>
+    <t>1200000903</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CÔNG NGHIỆP NHÀ XANH</t>
+  </si>
+  <si>
+    <t>1200000904</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH BẢO LÂM</t>
+  </si>
+  <si>
+    <t>1200000908</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN NHÀ VIỆT</t>
+  </si>
+  <si>
+    <t>1200000935</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN HỆ THỐNG SIÊU THỊ SƠN</t>
+  </si>
+  <si>
+    <t>1200000949</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BAO BÌ IN KIM LOẠI THẾ KỶ</t>
+  </si>
+  <si>
+    <t>1200000959</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ GỖ HOÀNG PHÁT</t>
+  </si>
+  <si>
+    <t>1200000971</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ SƠN ANH TÚ</t>
+  </si>
+  <si>
+    <t>1200000993</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH BAO BÌ SAHA DHARAWAT</t>
+  </si>
+  <si>
+    <t>1200001011</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐÔNG NGÔ MANUFACTURER</t>
+  </si>
+  <si>
+    <t>1200001023</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - DỊCH VỤ - XÂY DỰNG MAI TÂM</t>
+  </si>
+  <si>
+    <t>1200001029</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
+  </si>
+  <si>
+    <t>10400773</t>
+  </si>
+  <si>
+    <t>VŨ ANH HAI</t>
+  </si>
+  <si>
+    <t>1200001038</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH PHÚ MỸ THĂNG</t>
+  </si>
+  <si>
+    <t>1200001041</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI XÂY DỰNG THIÊN PHÚ DECOR</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1200001042</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIẾN TRÚC GỖ BỌC ĐÔ</t>
+  </si>
+  <si>
+    <t>1200001051</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH VINAWOOD</t>
+  </si>
+  <si>
+    <t>10999776</t>
+  </si>
+  <si>
+    <t>ĐẶNG VĂN CHỈ</t>
+  </si>
+  <si>
+    <t>1200001056</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THANH THANH LIÊM</t>
+  </si>
+  <si>
+    <t>1200001062</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BOHO CORPORATION</t>
+  </si>
+  <si>
+    <t>1200001065</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ TÂN LÂM</t>
+  </si>
+  <si>
+    <t>1200001072</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN KIM CHI</t>
+  </si>
+  <si>
+    <t>1200001077</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX TM QUANG TRUNG NGUYÊN</t>
+  </si>
+  <si>
+    <t>1200001079</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG HUY HƯNG</t>
+  </si>
+  <si>
+    <t>1200001084</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX TM DV SƠN MIỀN TÂY</t>
+  </si>
+  <si>
+    <t>1200001092</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH HỒNG LUÂN 3</t>
+  </si>
+  <si>
+    <t>1200001094</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH TM SẢN XUẤT XNK NỘI THẤT MCS</t>
+  </si>
+  <si>
+    <t>1200001104</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ARTEX ĐỒNG THÁP</t>
+  </si>
+  <si>
+    <t>1200001109</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ XÂY DỰNG THIÊN ĐỊNH</t>
+  </si>
+  <si>
+    <t>1200001113</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XD SX TM DV AB</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1200001114</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI TUÝP NHÔM THUẬN QUÂN</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1200001118</t>
+  </si>
+  <si>
+    <t>LAZADA</t>
+  </si>
+  <si>
+    <t>1200001119</t>
+  </si>
+  <si>
+    <t>VŨ ĐÌNH DŨNG</t>
+  </si>
+  <si>
+    <t>1200001123</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SƠN TÀI TRÍ</t>
+  </si>
+  <si>
+    <t>1200001124</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MTV HOÀNG MINH TUẤN</t>
+  </si>
+  <si>
+    <t>1200001125</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH TRẦN QUÝ</t>
+  </si>
+  <si>
+    <t>1200001133</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KIM THƯ FURNITURE</t>
+  </si>
+  <si>
+    <t>1200001140</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH SX – TM NHÂN TUẤN NHÂN – CHI NHÁNH BÌNH DƯƠNG</t>
+  </si>
+  <si>
+    <t>1200001144</t>
+  </si>
+  <si>
+    <t>HỘ KINH DOANH BUÔN LÊ COFFEE</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>1300000016</t>
+  </si>
+  <si>
+    <t>QUALITY IMAGE SDN BHD</t>
+  </si>
+  <si>
+    <t>1200000863</t>
+  </si>
+  <si>
+    <t>Công Ty TNHH Thương Mại Tổng Hợp Dũng Lý</t>
+  </si>
+  <si>
+    <t>1200000974</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH CAO VÕ</t>
+  </si>
+  <si>
+    <t>1200001004</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
+  </si>
+  <si>
     <t>1200000460</t>
   </si>
   <si>
     <t>Vũ Tiến Hiền</t>
   </si>
   <si>
-    <t>10888038</t>
-  </si>
-  <si>
-    <t>LIONG YAM CHYUAN</t>
-  </si>
-  <si>
-    <t>1200000524</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX XNK THƯƠNG MẠI SÁNG</t>
-  </si>
-  <si>
-    <t>1200000560</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX TM DV VĨNH TIẾN NGUYÊN</t>
-  </si>
-  <si>
-    <t>1200000613</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI VẠN CHÍNH</t>
-  </si>
-  <si>
-    <t>1200000649</t>
-  </si>
-  <si>
-    <t>CÔNG TY CP XÂY DỰNG KIẾN TRÚC AA TÂY NINH</t>
-  </si>
-  <si>
-    <t>1200000769</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN KIM MỘC</t>
-  </si>
-  <si>
-    <t>1200000786</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TIMBER PHOENIX</t>
-  </si>
-  <si>
-    <t>1200000795</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MILLENNIUM FURNITURE</t>
-  </si>
-  <si>
-    <t>10810655</t>
-  </si>
-  <si>
-    <t>PHẠM BÍCH THỦY</t>
-  </si>
-  <si>
-    <t>1200000834</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM DV XD TĂNG PHI</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>10810746</t>
-  </si>
-  <si>
-    <t>LÊ VĂN TẤN</t>
-  </si>
-  <si>
-    <t>1200000839</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HỒNG ÂN</t>
-  </si>
-  <si>
-    <t>10811780</t>
-  </si>
-  <si>
-    <t>TẠ DUY HÀ</t>
-  </si>
-  <si>
-    <t>1200000841</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM KHANG</t>
-  </si>
-  <si>
-    <t>10811384</t>
-  </si>
-  <si>
-    <t>VÕ THANH TUẤN</t>
-  </si>
-  <si>
-    <t>1200000842</t>
-  </si>
-  <si>
-    <t>DOANH NGHIỆP TƯ NHÂN THANH SƯƠNG</t>
-  </si>
-  <si>
-    <t>1200000843</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN CÔNG HẬU</t>
-  </si>
-  <si>
-    <t>1200000849</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH XÂY DỰNG THƯƠNG MẠI HOÀNG NGỌC THANH</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1200000850</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN KIM PHÚC PU</t>
-  </si>
-  <si>
-    <t>1200000851</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ PHẠM GIA TUẤN</t>
-  </si>
-  <si>
-    <t>1200000852</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG THIÊN HÀ PHÁT</t>
-  </si>
-  <si>
-    <t>10110766</t>
-  </si>
-  <si>
-    <t>PHẠM MINH SĨ</t>
-  </si>
-  <si>
-    <t>1200000854</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TRẦN LIÊN HƯNG</t>
-  </si>
-  <si>
-    <t>1200000856</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN AN PHÚ</t>
-  </si>
-  <si>
-    <t>1200000857</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ DANH PHÁT</t>
-  </si>
-  <si>
-    <t>1200000859</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN SẢN XUẤT THƯƠNG MẠI LOUIS PHƯỚC THẠNH</t>
-  </si>
-  <si>
-    <t>1200000865</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VẬT LIỆU XÂY DỰNG NGỌC THANH MINH</t>
-  </si>
-  <si>
-    <t>1200000876</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN HOÀNG HÀ</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>1200000882</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ XÂY DỰNG VÀ CÔNG NGHỆ SÀN SƠN PHÁT</t>
-  </si>
-  <si>
-    <t>1200000903</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CÔNG NGHIỆP NHÀ XANH</t>
-  </si>
-  <si>
-    <t>1200000904</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH BẢO LÂM</t>
-  </si>
-  <si>
-    <t>1200000908</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN NHÀ VIỆT</t>
-  </si>
-  <si>
-    <t>1200000935</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN HỆ THỐNG SIÊU THỊ SƠN</t>
-  </si>
-  <si>
-    <t>1200000949</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BAO BÌ IN KIM LOẠI THẾ KỶ</t>
-  </si>
-  <si>
-    <t>1200000971</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ SƠN ANH TÚ</t>
-  </si>
-  <si>
-    <t>1200000993</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH BAO BÌ SAHA DHARAWAT</t>
-  </si>
-  <si>
-    <t>1200001011</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ĐÔNG NGÔ MANUFACTURER</t>
-  </si>
-  <si>
-    <t>1200001023</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI - DỊCH VỤ - XÂY DỰNG MAI TÂM</t>
-  </si>
-  <si>
-    <t>1200001029</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TRANG TRÍ NỘI THẤT PHONG THẢO</t>
-  </si>
-  <si>
-    <t>10400773</t>
-  </si>
-  <si>
-    <t>VŨ ANH HAI</t>
-  </si>
-  <si>
-    <t>1200001038</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PHÚ MỸ THĂNG</t>
-  </si>
-  <si>
-    <t>1200001041</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI XÂY DỰNG THIÊN PHÚ DECOR</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1200001042</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KIẾN TRÚC GỖ BỌC ĐÔ</t>
-  </si>
-  <si>
-    <t>1200001051</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH VINAWOOD</t>
-  </si>
-  <si>
-    <t>10999776</t>
-  </si>
-  <si>
-    <t>ĐẶNG VĂN CHỈ</t>
-  </si>
-  <si>
-    <t>1200001056</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI THANH THANH LIÊM</t>
-  </si>
-  <si>
-    <t>1200001062</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN BOHO CORPORATION</t>
-  </si>
-  <si>
-    <t>1200001065</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI VÀ DỊCH VỤ TÂN LÂM</t>
-  </si>
-  <si>
-    <t>1200001072</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN KIM CHI</t>
-  </si>
-  <si>
-    <t>1200001077</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX TM QUANG TRUNG NGUYÊN</t>
-  </si>
-  <si>
-    <t>1200001079</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THƯƠNG MẠI - XÂY DỰNG HUY HƯNG</t>
-  </si>
-  <si>
-    <t>1200001084</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SX TM DV SƠN MIỀN TÂY</t>
-  </si>
-  <si>
-    <t>1200001092</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH HỒNG LUÂN 3</t>
-  </si>
-  <si>
-    <t>1200001094</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH TM SẢN XUẤT XNK NỘI THẤT MCS</t>
-  </si>
-  <si>
-    <t>1200001104</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ARTEX ĐỒNG THÁP</t>
-  </si>
-  <si>
-    <t>1200001109</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ XÂY DỰNG THIÊN ĐỊNH</t>
-  </si>
-  <si>
-    <t>1200001113</t>
-  </si>
-  <si>
-    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN XD SX TM DV AB</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>1200001114</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI TUÝP NHÔM THUẬN QUÂN</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>1200001118</t>
-  </si>
-  <si>
-    <t>LAZADA</t>
-  </si>
-  <si>
-    <t>1200001119</t>
-  </si>
-  <si>
-    <t>VŨ ĐÌNH DŨNG</t>
-  </si>
-  <si>
-    <t>1200001123</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SƠN TÀI TRÍ</t>
-  </si>
-  <si>
-    <t>1200001125</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH TRẦN QUÝ</t>
-  </si>
-  <si>
-    <t>1200001133</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH KIM THƯ FURNITURE</t>
-  </si>
-  <si>
-    <t>1200001144</t>
-  </si>
-  <si>
-    <t>HỘ KINH DOANH BUÔN LÊ COFFEE</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>1300000016</t>
-  </si>
-  <si>
-    <t>QUALITY IMAGE SDN BHD</t>
-  </si>
-  <si>
-    <t>1200000863</t>
-  </si>
-  <si>
-    <t>Công Ty TNHH Thương Mại Tổng Hợp Dũng Lý</t>
-  </si>
-  <si>
-    <t>1200000974</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH CAO VÕ</t>
-  </si>
-  <si>
-    <t>1200001004</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MỘT THÀNH VIÊN XÂY DỰNG - THƯƠNG MẠI VÀ DỊCH VỤ HOÀNG GIA</t>
-  </si>
-  <si>
     <t>1200000820</t>
   </si>
   <si>
     <t>CÔNG TY TNHH SẢN XUẤT NỘI THẤT TRẦN TIẾN</t>
   </si>
   <si>
-    <t>1200000959</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ GỖ HOÀNG PHÁT</t>
-  </si>
-  <si>
     <t>1200001015</t>
   </si>
   <si>
@@ -766,12 +778,6 @@
   </si>
   <si>
     <t>CÔNG TY CỔ PHẦN I-STAR ANIMATRONIC</t>
-  </si>
-  <si>
-    <t>1200001124</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH MTV HOÀNG MINH TUẤN</t>
   </si>
   <si>
     <t>1200001143</t>
@@ -1247,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y113"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1271,89 +1277,90 @@
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1489,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>227142392</v>
+        <v>323788168</v>
       </c>
       <c r="T3" s="2">
         <v>361088859</v>
@@ -1507,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>588231251</v>
+        <v>684877027</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1643,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1067079960</v>
       </c>
       <c r="T5" s="2">
         <v>0</v>
@@ -1661,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>1067079960</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2259,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>52629610</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -2271,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>347370390</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
       </c>
       <c r="Y13" s="2">
-        <v>0</v>
+        <v>400000000</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2798,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>331638786</v>
+        <v>556753986</v>
       </c>
       <c r="T20" s="2">
         <v>0</v>
@@ -2816,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <v>331638786</v>
+        <v>556753986</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -3366,34 +3373,34 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>81</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>82</v>
       </c>
-      <c r="H28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" t="s">
-        <v>84</v>
-      </c>
       <c r="J28" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="2">
-        <v>23165915</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>2440800</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -3405,19 +3412,19 @@
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>0</v>
+        <v>260820480</v>
       </c>
       <c r="Q28" s="2">
-        <v>25606715</v>
+        <v>260820480</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>12601408</v>
+        <v>0</v>
       </c>
       <c r="T28" s="2">
-        <v>2440800</v>
+        <v>0</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
@@ -3432,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>15042208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -3452,22 +3459,22 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>554876741</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -3482,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>260820480</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>260820480</v>
+        <v>554876741</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <v>0</v>
+        <v>554876741</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -3509,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>0</v>
+        <v>554876741</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -3529,25 +3536,25 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="2">
-        <v>554876741</v>
+        <v>1369289880</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>47214360</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -3562,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="Q30" s="2">
-        <v>554876741</v>
+        <v>1416504240</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <v>554876741</v>
+        <v>367192520</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -3586,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="2">
-        <v>554876741</v>
+        <v>367192520</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -3606,28 +3613,28 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="2">
-        <v>1369289880</v>
+        <v>3067454017</v>
       </c>
       <c r="L31" s="2">
-        <v>47214360</v>
+        <v>4120169888</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>305286534</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -3639,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <v>1416504240</v>
+        <v>7492910439</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -3648,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <v>0</v>
+        <v>2326209077</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
@@ -3663,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="2">
-        <v>0</v>
+        <v>2326209077</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -3683,28 +3690,28 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="2">
-        <v>3067454017</v>
+        <v>181314309</v>
       </c>
       <c r="L32" s="2">
-        <v>4120169888</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>305286534</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -3716,16 +3723,16 @@
         <v>0</v>
       </c>
       <c r="Q32" s="2">
-        <v>7492910439</v>
+        <v>181314309</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>0</v>
+        <v>56173564</v>
       </c>
       <c r="T32" s="2">
-        <v>2326209077</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -3740,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>2326209077</v>
+        <v>56173564</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -3760,25 +3767,25 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="2">
-        <v>135819849</v>
+        <v>18394560</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>43212855</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -3793,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <v>135819849</v>
+        <v>61607415</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>42006902</v>
+        <v>6787145</v>
       </c>
       <c r="T33" s="2">
-        <v>0</v>
+        <v>43212855</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -3817,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>42006902</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -3837,25 +3844,25 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J34" t="s">
         <v>9</v>
       </c>
       <c r="K34" s="2">
-        <v>18394560</v>
+        <v>47256048</v>
       </c>
       <c r="L34" s="2">
-        <v>43212855</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
@@ -3870,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>61607415</v>
+        <v>47256048</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <v>6787145</v>
+        <v>36465120</v>
       </c>
       <c r="T34" s="2">
-        <v>43212855</v>
+        <v>0</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -3894,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <v>50000000</v>
+        <v>36465120</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -3905,19 +3912,19 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="H35" t="s">
         <v>99</v>
@@ -3929,7 +3936,7 @@
         <v>9</v>
       </c>
       <c r="K35" s="2">
-        <v>47256048</v>
+        <v>31089117</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -3947,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="2">
-        <v>47256048</v>
+        <v>31089117</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
       <c r="S35" s="2">
-        <v>36465120</v>
+        <v>0</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -3971,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>36465120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -3982,31 +3989,31 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J36" t="s">
         <v>9</v>
       </c>
       <c r="K36" s="2">
-        <v>31089117</v>
+        <v>20162540</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -4024,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <v>31089117</v>
+        <v>20162540</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>0</v>
+        <v>10841142</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -4048,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <v>0</v>
+        <v>10841142</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4059,13 +4066,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>106</v>
@@ -4083,7 +4090,7 @@
         <v>9</v>
       </c>
       <c r="K37" s="2">
-        <v>20162540</v>
+        <v>33875710</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -4101,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>20162540</v>
+        <v>33875710</v>
       </c>
       <c r="R37" s="2">
-        <v>0</v>
+        <v>8364108</v>
       </c>
       <c r="S37" s="2">
-        <v>10841142</v>
+        <v>33875710</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -4125,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <v>10841142</v>
+        <v>42239818</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -4136,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>110</v>
@@ -4160,7 +4167,7 @@
         <v>9</v>
       </c>
       <c r="K38" s="2">
-        <v>33875710</v>
+        <v>30839021</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -4178,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <v>33875710</v>
+        <v>30839021</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
       </c>
       <c r="S38" s="2">
-        <v>0</v>
+        <v>30839021</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
@@ -4202,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="2">
-        <v>0</v>
+        <v>30839021</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -4213,37 +4220,37 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
         <v>114</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>115</v>
       </c>
-      <c r="H39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" t="s">
-        <v>117</v>
-      </c>
       <c r="J39" t="s">
         <v>9</v>
       </c>
       <c r="K39" s="2">
-        <v>30839021</v>
+        <v>458232592</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>529827744</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
+        <v>61204913</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
@@ -4255,19 +4262,19 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>30839021</v>
+        <v>1049265249</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>30839021</v>
+        <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>0</v>
+        <v>358795087</v>
       </c>
       <c r="U39" s="2">
-        <v>0</v>
+        <v>61204913</v>
       </c>
       <c r="V39" s="2">
         <v>0</v>
@@ -4279,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="2">
-        <v>30839021</v>
+        <v>420000000</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -4290,37 +4297,37 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J40" t="s">
         <v>9</v>
       </c>
       <c r="K40" s="2">
-        <v>458232592</v>
+        <v>366138385</v>
       </c>
       <c r="L40" s="2">
-        <v>529827744</v>
+        <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>61204913</v>
+        <v>0</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
@@ -4332,19 +4339,19 @@
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>1049265249</v>
+        <v>366138385</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>0</v>
+        <v>197250189</v>
       </c>
       <c r="T40" s="2">
-        <v>258795087</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
-        <v>61204913</v>
+        <v>0</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
@@ -4356,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>320000000</v>
+        <v>197250189</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -4367,37 +4374,37 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" t="s">
         <v>120</v>
       </c>
-      <c r="I41" t="s">
-        <v>121</v>
-      </c>
       <c r="J41" t="s">
         <v>9</v>
       </c>
       <c r="K41" s="2">
-        <v>366138385</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>42336913</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
@@ -4409,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="2">
-        <v>366138385</v>
+        <v>42336913</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>197250189</v>
+        <v>0</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -4433,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2">
-        <v>197250189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -4444,37 +4451,37 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
         <v>122</v>
       </c>
-      <c r="F42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" t="s">
-        <v>124</v>
-      </c>
       <c r="J42" t="s">
         <v>9</v>
       </c>
       <c r="K42" s="2">
-        <v>0</v>
+        <v>499362416</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>42336913</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -4486,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <v>42336913</v>
+        <v>499362416</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
       </c>
       <c r="S42" s="2">
-        <v>0</v>
+        <v>384461246</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
@@ -4510,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="2">
-        <v>0</v>
+        <v>384461246</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -4521,31 +4528,31 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
         <v>9</v>
       </c>
       <c r="K43" s="2">
-        <v>499362416</v>
+        <v>346260810</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -4563,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="2">
-        <v>499362416</v>
+        <v>346260810</v>
       </c>
       <c r="R43" s="2">
-        <v>0</v>
+        <v>174778588</v>
       </c>
       <c r="S43" s="2">
-        <v>384461246</v>
+        <v>302959411</v>
       </c>
       <c r="T43" s="2">
         <v>0</v>
@@ -4587,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="2">
-        <v>384461246</v>
+        <v>477737999</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -4598,19 +4605,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H44" t="s">
         <v>127</v>
@@ -4622,7 +4629,7 @@
         <v>9</v>
       </c>
       <c r="K44" s="2">
-        <v>346260810</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -4634,19 +4641,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>0</v>
+        <v>-437763</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>-563094</v>
       </c>
       <c r="Q44" s="2">
-        <v>346260810</v>
+        <v>-1000857</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>210192245</v>
+        <v>0</v>
       </c>
       <c r="T44" s="2">
         <v>0</v>
@@ -4664,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>210192245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -4675,26 +4682,26 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" t="s">
         <v>129</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>130</v>
       </c>
-      <c r="H45" t="s">
-        <v>131</v>
-      </c>
-      <c r="I45" t="s">
-        <v>132</v>
-      </c>
       <c r="J45" t="s">
         <v>9</v>
       </c>
@@ -4711,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>-437763</v>
+        <v>0</v>
       </c>
       <c r="P45" s="2">
-        <v>-563094</v>
+        <v>-731234</v>
       </c>
       <c r="Q45" s="2">
-        <v>-1000857</v>
+        <v>-731234</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -4752,19 +4759,19 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H46" t="s">
         <v>133</v>
@@ -4776,7 +4783,7 @@
         <v>9</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>8862904</v>
       </c>
       <c r="L46" s="2">
         <v>0</v>
@@ -4791,16 +4798,16 @@
         <v>0</v>
       </c>
       <c r="P46" s="2">
-        <v>-731234</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2">
-        <v>-731234</v>
+        <v>8862904</v>
       </c>
       <c r="R46" s="2">
-        <v>0</v>
+        <v>5457947</v>
       </c>
       <c r="S46" s="2">
-        <v>0</v>
+        <v>9149321</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -4818,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>0</v>
+        <v>14607268</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -4829,19 +4836,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H47" t="s">
         <v>135</v>
@@ -4853,7 +4860,7 @@
         <v>9</v>
       </c>
       <c r="K47" s="2">
-        <v>8862904</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
         <v>0</v>
@@ -4868,16 +4875,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>25628426</v>
       </c>
       <c r="Q47" s="2">
-        <v>8862904</v>
+        <v>25628426</v>
       </c>
       <c r="R47" s="2">
-        <v>5457947</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2">
-        <v>9149321</v>
+        <v>0</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -4895,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <v>14607268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -4906,19 +4913,19 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
         <v>137</v>
@@ -4930,25 +4937,25 @@
         <v>9</v>
       </c>
       <c r="K48" s="2">
-        <v>0</v>
+        <v>8553717</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>38598624</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>5064037</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
+        <v>42755331</v>
       </c>
       <c r="P48" s="2">
-        <v>25628426</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <v>25628426</v>
+        <v>94971709</v>
       </c>
       <c r="R48" s="2">
         <v>0</v>
@@ -4983,19 +4990,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H49" t="s">
         <v>139</v>
@@ -5007,25 +5014,25 @@
         <v>9</v>
       </c>
       <c r="K49" s="2">
-        <v>8553717</v>
+        <v>23064694</v>
       </c>
       <c r="L49" s="2">
-        <v>38598624</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>5064037</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>42755331</v>
+        <v>0</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>94971709</v>
+        <v>23064694</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5060,31 +5067,31 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J50" t="s">
         <v>9</v>
       </c>
       <c r="K50" s="2">
-        <v>23064694</v>
+        <v>54874800</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
@@ -5102,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <v>23064694</v>
+        <v>54874800</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
@@ -5137,19 +5144,19 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
         <v>144</v>
@@ -5161,10 +5168,10 @@
         <v>9</v>
       </c>
       <c r="K51" s="2">
-        <v>54874800</v>
+        <v>304812288</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
+        <v>143665920</v>
       </c>
       <c r="M51" s="2">
         <v>0</v>
@@ -5179,16 +5186,16 @@
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>54874800</v>
+        <v>448478208</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
       </c>
       <c r="S51" s="2">
-        <v>0</v>
+        <v>223517664</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>143665920</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
@@ -5203,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="2">
-        <v>0</v>
+        <v>367183584</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -5214,19 +5221,19 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="H52" t="s">
         <v>146</v>
@@ -5238,10 +5245,10 @@
         <v>9</v>
       </c>
       <c r="K52" s="2">
-        <v>304812288</v>
+        <v>31110202</v>
       </c>
       <c r="L52" s="2">
-        <v>143665920</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -5256,16 +5263,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>448478208</v>
+        <v>31110202</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <v>26682048</v>
+        <v>31110202</v>
       </c>
       <c r="T52" s="2">
-        <v>143665920</v>
+        <v>0</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -5280,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <v>170347968</v>
+        <v>31110202</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -5291,19 +5298,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="H53" t="s">
         <v>148</v>
@@ -5315,7 +5322,7 @@
         <v>9</v>
       </c>
       <c r="K53" s="2">
-        <v>31110202</v>
+        <v>3880646</v>
       </c>
       <c r="L53" s="2">
         <v>0</v>
@@ -5333,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>31110202</v>
+        <v>3880646</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <v>31110202</v>
+        <v>0</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -5357,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2">
-        <v>31110202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -5368,19 +5375,19 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H54" t="s">
         <v>150</v>
@@ -5392,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="K54" s="2">
-        <v>3880646</v>
+        <v>33747807</v>
       </c>
       <c r="L54" s="2">
         <v>0</v>
@@ -5410,13 +5417,13 @@
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <v>3880646</v>
+        <v>33747807</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>0</v>
+        <v>22253189</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -5434,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>0</v>
+        <v>22253189</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -5445,19 +5452,19 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
         <v>152</v>
@@ -5469,7 +5476,7 @@
         <v>9</v>
       </c>
       <c r="K55" s="2">
-        <v>22253189</v>
+        <v>277171200</v>
       </c>
       <c r="L55" s="2">
         <v>0</v>
@@ -5487,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="2">
-        <v>22253189</v>
+        <v>277171200</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <v>0</v>
+        <v>176601600</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -5511,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>0</v>
+        <v>176601600</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -5531,10 +5538,10 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H56" t="s">
         <v>154</v>
@@ -5546,7 +5553,7 @@
         <v>9</v>
       </c>
       <c r="K56" s="2">
-        <v>277171200</v>
+        <v>13588560</v>
       </c>
       <c r="L56" s="2">
         <v>0</v>
@@ -5564,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <v>277171200</v>
+        <v>13588560</v>
       </c>
       <c r="R56" s="2">
         <v>0</v>
       </c>
       <c r="S56" s="2">
-        <v>176601600</v>
+        <v>13588560</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
@@ -5588,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="2">
-        <v>176601600</v>
+        <v>13588560</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -5599,19 +5606,19 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H57" t="s">
         <v>156</v>
@@ -5830,19 +5837,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H60" t="s">
         <v>162</v>
@@ -5907,19 +5914,19 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="H61" t="s">
         <v>164</v>
@@ -5984,13 +5991,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F62" t="s">
         <v>166</v>
@@ -6138,19 +6145,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H64" t="s">
         <v>170</v>
@@ -6571,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="S69" s="2">
-        <v>444677040</v>
+        <v>584858448</v>
       </c>
       <c r="T69" s="2">
         <v>0</v>
@@ -6589,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="2">
-        <v>444677040</v>
+        <v>584858448</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -6600,19 +6607,19 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H70" t="s">
         <v>183</v>
@@ -6677,19 +6684,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
         <v>185</v>
@@ -6725,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="2">
-        <v>13991522</v>
+        <v>20741602</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -6743,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="2">
-        <v>13991522</v>
+        <v>20741602</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
@@ -6831,19 +6838,19 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G73" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H73" t="s">
         <v>189</v>
@@ -6908,19 +6915,19 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H74" t="s">
         <v>191</v>
@@ -6985,19 +6992,19 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G75" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="H75" t="s">
         <v>193</v>
@@ -7216,19 +7223,19 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F78" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H78" t="s">
         <v>199</v>
@@ -7293,19 +7300,19 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G79" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H79" t="s">
         <v>201</v>
@@ -7447,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -7456,10 +7463,10 @@
         <v>206</v>
       </c>
       <c r="F81" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="G81" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="H81" t="s">
         <v>207</v>
@@ -7492,7 +7499,7 @@
         <v>1471340</v>
       </c>
       <c r="R81" s="2">
-        <v>2552222</v>
+        <v>3487549</v>
       </c>
       <c r="S81" s="2">
         <v>641543</v>
@@ -7513,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="2">
-        <v>3193765</v>
+        <v>4129092</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
@@ -7524,19 +7531,19 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H82" t="s">
         <v>209</v>
@@ -7601,19 +7608,19 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G83" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H83" t="s">
         <v>211</v>
@@ -7678,19 +7685,19 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
         <v>213</v>
@@ -7702,10 +7709,10 @@
         <v>9</v>
       </c>
       <c r="K84" s="2">
-        <v>6293384</v>
+        <v>0</v>
       </c>
       <c r="L84" s="2">
-        <v>0</v>
+        <v>8756640</v>
       </c>
       <c r="M84" s="2">
         <v>0</v>
@@ -7720,16 +7727,16 @@
         <v>0</v>
       </c>
       <c r="Q84" s="2">
-        <v>6293384</v>
+        <v>8756640</v>
       </c>
       <c r="R84" s="2">
         <v>0</v>
       </c>
       <c r="S84" s="2">
-        <v>6293384</v>
+        <v>0</v>
       </c>
       <c r="T84" s="2">
-        <v>0</v>
+        <v>8756640</v>
       </c>
       <c r="U84" s="2">
         <v>0</v>
@@ -7744,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="2">
-        <v>6293384</v>
+        <v>8756640</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
@@ -7755,19 +7762,19 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="H85" t="s">
         <v>215</v>
@@ -7779,7 +7786,7 @@
         <v>9</v>
       </c>
       <c r="K85" s="2">
-        <v>52071984</v>
+        <v>6293384</v>
       </c>
       <c r="L85" s="2">
         <v>0</v>
@@ -7797,13 +7804,13 @@
         <v>0</v>
       </c>
       <c r="Q85" s="2">
-        <v>52071984</v>
+        <v>6293384</v>
       </c>
       <c r="R85" s="2">
         <v>0</v>
       </c>
       <c r="S85" s="2">
-        <v>0</v>
+        <v>6293384</v>
       </c>
       <c r="T85" s="2">
         <v>0</v>
@@ -7821,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="2">
-        <v>0</v>
+        <v>6293384</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
@@ -7832,19 +7839,19 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
         <v>217</v>
@@ -7856,7 +7863,7 @@
         <v>9</v>
       </c>
       <c r="K86" s="2">
-        <v>94416395</v>
+        <v>52071984</v>
       </c>
       <c r="L86" s="2">
         <v>0</v>
@@ -7874,13 +7881,13 @@
         <v>0</v>
       </c>
       <c r="Q86" s="2">
-        <v>94416395</v>
+        <v>52071984</v>
       </c>
       <c r="R86" s="2">
         <v>0</v>
       </c>
       <c r="S86" s="2">
-        <v>86100944</v>
+        <v>0</v>
       </c>
       <c r="T86" s="2">
         <v>0</v>
@@ -7898,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="2">
-        <v>86100944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
@@ -7915,25 +7922,25 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>177</v>
+      </c>
+      <c r="G87" t="s">
+        <v>178</v>
+      </c>
+      <c r="H87" t="s">
         <v>219</v>
       </c>
-      <c r="F87" t="s">
-        <v>85</v>
-      </c>
-      <c r="G87" t="s">
-        <v>86</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>220</v>
       </c>
-      <c r="I87" t="s">
-        <v>221</v>
-      </c>
       <c r="J87" t="s">
         <v>9</v>
       </c>
       <c r="K87" s="2">
-        <v>520636036</v>
+        <v>926640</v>
       </c>
       <c r="L87" s="2">
         <v>0</v>
@@ -7951,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2">
-        <v>520636036</v>
+        <v>926640</v>
       </c>
       <c r="R87" s="2">
         <v>0</v>
@@ -7986,37 +7993,37 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I88" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J88" t="s">
         <v>9</v>
       </c>
       <c r="K88" s="2">
-        <v>0</v>
+        <v>1609308</v>
       </c>
       <c r="L88" s="2">
         <v>0</v>
       </c>
       <c r="M88" s="2">
-        <v>-840131</v>
+        <v>0</v>
       </c>
       <c r="N88" s="2">
         <v>0</v>
@@ -8028,10 +8035,10 @@
         <v>0</v>
       </c>
       <c r="Q88" s="2">
-        <v>-840131</v>
+        <v>1609308</v>
       </c>
       <c r="R88" s="2">
-        <v>107066475</v>
+        <v>0</v>
       </c>
       <c r="S88" s="2">
         <v>0</v>
@@ -8052,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="2">
-        <v>107066475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
@@ -8063,31 +8070,31 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H89" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J89" t="s">
         <v>9</v>
       </c>
       <c r="K89" s="2">
-        <v>-913478</v>
+        <v>101404169</v>
       </c>
       <c r="L89" s="2">
         <v>0</v>
@@ -8096,22 +8103,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="2">
-        <v>-913478</v>
+        <v>0</v>
       </c>
       <c r="O89" s="2">
-        <v>-137670</v>
+        <v>0</v>
       </c>
       <c r="P89" s="2">
         <v>0</v>
       </c>
       <c r="Q89" s="2">
-        <v>-1964626</v>
+        <v>101404169</v>
       </c>
       <c r="R89" s="2">
         <v>0</v>
       </c>
       <c r="S89" s="2">
-        <v>0</v>
+        <v>86100944</v>
       </c>
       <c r="T89" s="2">
         <v>0</v>
@@ -8129,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="2">
-        <v>0</v>
+        <v>86100944</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -8140,31 +8147,31 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" t="s">
         <v>79</v>
       </c>
-      <c r="D90" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>80</v>
       </c>
-      <c r="F90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" t="s">
-        <v>82</v>
-      </c>
       <c r="H90" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J90" t="s">
         <v>9</v>
       </c>
       <c r="K90" s="2">
-        <v>0</v>
+        <v>520636036</v>
       </c>
       <c r="L90" s="2">
         <v>0</v>
@@ -8179,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="2">
-        <v>-403920</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="2">
-        <v>-403920</v>
+        <v>520636036</v>
       </c>
       <c r="R90" s="2">
         <v>0</v>
@@ -8217,37 +8224,37 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F91" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="H91" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I91" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J91" t="s">
         <v>9</v>
       </c>
       <c r="K91" s="2">
-        <v>18668880</v>
+        <v>0</v>
       </c>
       <c r="L91" s="2">
         <v>0</v>
       </c>
       <c r="M91" s="2">
-        <v>0</v>
+        <v>-840131</v>
       </c>
       <c r="N91" s="2">
         <v>0</v>
@@ -8259,13 +8266,13 @@
         <v>0</v>
       </c>
       <c r="Q91" s="2">
-        <v>18668880</v>
+        <v>-840131</v>
       </c>
       <c r="R91" s="2">
-        <v>0</v>
+        <v>107066475</v>
       </c>
       <c r="S91" s="2">
-        <v>18668880</v>
+        <v>0</v>
       </c>
       <c r="T91" s="2">
         <v>0</v>
@@ -8283,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="Y91" s="2">
-        <v>18668880</v>
+        <v>107066475</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -8294,31 +8301,31 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="H92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J92" t="s">
         <v>9</v>
       </c>
       <c r="K92" s="2">
-        <v>13588560</v>
+        <v>-913478</v>
       </c>
       <c r="L92" s="2">
         <v>0</v>
@@ -8327,22 +8334,22 @@
         <v>0</v>
       </c>
       <c r="N92" s="2">
-        <v>0</v>
+        <v>-913478</v>
       </c>
       <c r="O92" s="2">
-        <v>0</v>
+        <v>-137670</v>
       </c>
       <c r="P92" s="2">
         <v>0</v>
       </c>
       <c r="Q92" s="2">
-        <v>13588560</v>
+        <v>-1964626</v>
       </c>
       <c r="R92" s="2">
         <v>0</v>
       </c>
       <c r="S92" s="2">
-        <v>13588560</v>
+        <v>0</v>
       </c>
       <c r="T92" s="2">
         <v>0</v>
@@ -8360,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="Y92" s="2">
-        <v>13588560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -8371,31 +8378,31 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F93" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="H93" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I93" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J93" t="s">
         <v>9</v>
       </c>
       <c r="K93" s="2">
-        <v>37779264</v>
+        <v>0</v>
       </c>
       <c r="L93" s="2">
         <v>0</v>
@@ -8410,16 +8417,16 @@
         <v>0</v>
       </c>
       <c r="P93" s="2">
-        <v>0</v>
+        <v>-403920</v>
       </c>
       <c r="Q93" s="2">
-        <v>37779264</v>
+        <v>-403920</v>
       </c>
       <c r="R93" s="2">
         <v>0</v>
       </c>
       <c r="S93" s="2">
-        <v>37779264</v>
+        <v>0</v>
       </c>
       <c r="T93" s="2">
         <v>0</v>
@@ -8437,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="Y93" s="2">
-        <v>37779264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
@@ -8448,34 +8455,34 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="H94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I94" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J94" t="s">
         <v>9</v>
       </c>
       <c r="K94" s="2">
-        <v>1935360</v>
+        <v>23165915</v>
       </c>
       <c r="L94" s="2">
-        <v>0</v>
+        <v>2440800</v>
       </c>
       <c r="M94" s="2">
         <v>0</v>
@@ -8490,16 +8497,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="2">
-        <v>1935360</v>
+        <v>25606715</v>
       </c>
       <c r="R94" s="2">
         <v>0</v>
       </c>
       <c r="S94" s="2">
-        <v>1935360</v>
+        <v>23165915</v>
       </c>
       <c r="T94" s="2">
-        <v>0</v>
+        <v>2440800</v>
       </c>
       <c r="U94" s="2">
         <v>0</v>
@@ -8514,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="2">
-        <v>1935360</v>
+        <v>25606715</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
@@ -8525,31 +8532,31 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I95" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J95" t="s">
         <v>9</v>
       </c>
       <c r="K95" s="2">
-        <v>7318080</v>
+        <v>35322480</v>
       </c>
       <c r="L95" s="2">
         <v>0</v>
@@ -8567,13 +8574,13 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2">
-        <v>7318080</v>
+        <v>35322480</v>
       </c>
       <c r="R95" s="2">
         <v>0</v>
       </c>
       <c r="S95" s="2">
-        <v>7318080</v>
+        <v>35322480</v>
       </c>
       <c r="T95" s="2">
         <v>0</v>
@@ -8591,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="2">
-        <v>7318080</v>
+        <v>35322480</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -8602,31 +8609,31 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J96" t="s">
         <v>9</v>
       </c>
       <c r="K96" s="2">
-        <v>4814059</v>
+        <v>37779264</v>
       </c>
       <c r="L96" s="2">
         <v>0</v>
@@ -8644,13 +8651,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="2">
-        <v>4814059</v>
+        <v>37779264</v>
       </c>
       <c r="R96" s="2">
         <v>0</v>
       </c>
       <c r="S96" s="2">
-        <v>4814059</v>
+        <v>37779264</v>
       </c>
       <c r="T96" s="2">
         <v>0</v>
@@ -8668,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="2">
-        <v>4814059</v>
+        <v>37779264</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
@@ -8679,31 +8686,31 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J97" t="s">
         <v>9</v>
       </c>
       <c r="K97" s="2">
-        <v>12780220</v>
+        <v>1935360</v>
       </c>
       <c r="L97" s="2">
         <v>0</v>
@@ -8721,13 +8728,13 @@
         <v>0</v>
       </c>
       <c r="Q97" s="2">
-        <v>12780220</v>
+        <v>1935360</v>
       </c>
       <c r="R97" s="2">
         <v>0</v>
       </c>
       <c r="S97" s="2">
-        <v>12780220</v>
+        <v>1935360</v>
       </c>
       <c r="T97" s="2">
         <v>0</v>
@@ -8745,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="2">
-        <v>12780220</v>
+        <v>1935360</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
@@ -8756,31 +8763,31 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="F98" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="H98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J98" t="s">
         <v>9</v>
       </c>
       <c r="K98" s="2">
-        <v>15970608</v>
+        <v>7318080</v>
       </c>
       <c r="L98" s="2">
         <v>0</v>
@@ -8798,13 +8805,13 @@
         <v>0</v>
       </c>
       <c r="Q98" s="2">
-        <v>15970608</v>
+        <v>7318080</v>
       </c>
       <c r="R98" s="2">
         <v>0</v>
       </c>
       <c r="S98" s="2">
-        <v>15970608</v>
+        <v>7318080</v>
       </c>
       <c r="T98" s="2">
         <v>0</v>
@@ -8822,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="2">
-        <v>15970608</v>
+        <v>7318080</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
@@ -8833,31 +8840,31 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F99" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="G99" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="H99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I99" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J99" t="s">
         <v>9</v>
       </c>
       <c r="K99" s="2">
-        <v>3361824</v>
+        <v>4814059</v>
       </c>
       <c r="L99" s="2">
         <v>0</v>
@@ -8875,13 +8882,13 @@
         <v>0</v>
       </c>
       <c r="Q99" s="2">
-        <v>3361824</v>
+        <v>4814059</v>
       </c>
       <c r="R99" s="2">
         <v>0</v>
       </c>
       <c r="S99" s="2">
-        <v>3361824</v>
+        <v>4814059</v>
       </c>
       <c r="T99" s="2">
         <v>0</v>
@@ -8899,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="Y99" s="2">
-        <v>3361824</v>
+        <v>4814059</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
@@ -8910,31 +8917,31 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J100" t="s">
         <v>9</v>
       </c>
       <c r="K100" s="2">
-        <v>4968000</v>
+        <v>12780220</v>
       </c>
       <c r="L100" s="2">
         <v>0</v>
@@ -8952,13 +8959,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="2">
-        <v>4968000</v>
+        <v>12780220</v>
       </c>
       <c r="R100" s="2">
         <v>0</v>
       </c>
       <c r="S100" s="2">
-        <v>4968000</v>
+        <v>12780220</v>
       </c>
       <c r="T100" s="2">
         <v>0</v>
@@ -8976,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="2">
-        <v>4968000</v>
+        <v>12780220</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -8993,25 +9000,25 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G101" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="H101" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="I101" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="J101" t="s">
         <v>9</v>
       </c>
       <c r="K101" s="2">
-        <v>3889080</v>
+        <v>15970608</v>
       </c>
       <c r="L101" s="2">
         <v>0</v>
@@ -9029,13 +9036,13 @@
         <v>0</v>
       </c>
       <c r="Q101" s="2">
-        <v>3889080</v>
+        <v>15970608</v>
       </c>
       <c r="R101" s="2">
         <v>0</v>
       </c>
       <c r="S101" s="2">
-        <v>3889080</v>
+        <v>15970608</v>
       </c>
       <c r="T101" s="2">
         <v>0</v>
@@ -9053,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="2">
-        <v>3889080</v>
+        <v>15970608</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
@@ -9073,10 +9080,10 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H102" t="s">
         <v>248</v>
@@ -9088,10 +9095,10 @@
         <v>9</v>
       </c>
       <c r="K102" s="2">
-        <v>0</v>
+        <v>3361824</v>
       </c>
       <c r="L102" s="2">
-        <v>8756640</v>
+        <v>0</v>
       </c>
       <c r="M102" s="2">
         <v>0</v>
@@ -9106,16 +9113,16 @@
         <v>0</v>
       </c>
       <c r="Q102" s="2">
-        <v>8756640</v>
+        <v>3361824</v>
       </c>
       <c r="R102" s="2">
         <v>0</v>
       </c>
       <c r="S102" s="2">
-        <v>0</v>
+        <v>3361824</v>
       </c>
       <c r="T102" s="2">
-        <v>8756640</v>
+        <v>0</v>
       </c>
       <c r="U102" s="2">
         <v>0</v>
@@ -9130,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="2">
-        <v>8756640</v>
+        <v>3361824</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
@@ -9150,25 +9157,25 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J103" t="s">
         <v>9</v>
       </c>
       <c r="K103" s="2">
-        <v>0</v>
+        <v>4968000</v>
       </c>
       <c r="L103" s="2">
-        <v>1287576</v>
+        <v>0</v>
       </c>
       <c r="M103" s="2">
         <v>0</v>
@@ -9183,16 +9190,16 @@
         <v>0</v>
       </c>
       <c r="Q103" s="2">
-        <v>1287576</v>
+        <v>4968000</v>
       </c>
       <c r="R103" s="2">
         <v>0</v>
       </c>
       <c r="S103" s="2">
-        <v>0</v>
+        <v>4968000</v>
       </c>
       <c r="T103" s="2">
-        <v>1287576</v>
+        <v>0</v>
       </c>
       <c r="U103" s="2">
         <v>0</v>
@@ -9207,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="2">
-        <v>1287576</v>
+        <v>4968000</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
@@ -9218,34 +9225,34 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F104" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="G104" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="I104" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J104" t="s">
         <v>9</v>
       </c>
       <c r="K104" s="2">
-        <v>36258561</v>
+        <v>3889080</v>
       </c>
       <c r="L104" s="2">
-        <v>31735068</v>
+        <v>0</v>
       </c>
       <c r="M104" s="2">
         <v>0</v>
@@ -9260,13 +9267,13 @@
         <v>0</v>
       </c>
       <c r="Q104" s="2">
-        <v>67993629</v>
+        <v>3889080</v>
       </c>
       <c r="R104" s="2">
         <v>0</v>
       </c>
       <c r="S104" s="2">
-        <v>67993629</v>
+        <v>3889080</v>
       </c>
       <c r="T104" s="2">
         <v>0</v>
@@ -9284,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="2">
-        <v>67993629</v>
+        <v>3889080</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
@@ -9310,10 +9317,10 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="I105" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="J105" t="s">
         <v>9</v>
@@ -9322,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="2">
-        <v>150120</v>
+        <v>1287576</v>
       </c>
       <c r="M105" s="2">
         <v>0</v>
@@ -9337,16 +9344,16 @@
         <v>0</v>
       </c>
       <c r="Q105" s="2">
-        <v>150120</v>
+        <v>1287576</v>
       </c>
       <c r="R105" s="2">
         <v>0</v>
       </c>
       <c r="S105" s="2">
-        <v>150120</v>
+        <v>0</v>
       </c>
       <c r="T105" s="2">
-        <v>0</v>
+        <v>1287576</v>
       </c>
       <c r="U105" s="2">
         <v>0</v>
@@ -9361,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="2">
-        <v>150120</v>
+        <v>1287576</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
@@ -9372,19 +9379,19 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="H106" t="s">
         <v>252</v>
@@ -9396,10 +9403,10 @@
         <v>9</v>
       </c>
       <c r="K106" s="2">
-        <v>0</v>
+        <v>36258561</v>
       </c>
       <c r="L106" s="2">
-        <v>869498</v>
+        <v>31735068</v>
       </c>
       <c r="M106" s="2">
         <v>0</v>
@@ -9414,16 +9421,16 @@
         <v>0</v>
       </c>
       <c r="Q106" s="2">
-        <v>869498</v>
+        <v>67993629</v>
       </c>
       <c r="R106" s="2">
         <v>0</v>
       </c>
       <c r="S106" s="2">
-        <v>0</v>
+        <v>67993629</v>
       </c>
       <c r="T106" s="2">
-        <v>869498</v>
+        <v>0</v>
       </c>
       <c r="U106" s="2">
         <v>0</v>
@@ -9438,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="2">
-        <v>869498</v>
+        <v>67993629</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
@@ -9449,34 +9456,34 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="G107" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="I107" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="J107" t="s">
         <v>9</v>
       </c>
       <c r="K107" s="2">
-        <v>3240000</v>
+        <v>0</v>
       </c>
       <c r="L107" s="2">
-        <v>0</v>
+        <v>150120</v>
       </c>
       <c r="M107" s="2">
         <v>0</v>
@@ -9491,13 +9498,13 @@
         <v>0</v>
       </c>
       <c r="Q107" s="2">
-        <v>3240000</v>
+        <v>150120</v>
       </c>
       <c r="R107" s="2">
         <v>0</v>
       </c>
       <c r="S107" s="2">
-        <v>3240000</v>
+        <v>150120</v>
       </c>
       <c r="T107" s="2">
         <v>0</v>
@@ -9515,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="2">
-        <v>3240000</v>
+        <v>150120</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
@@ -9526,34 +9533,34 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G108" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="H108" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I108" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J108" t="s">
         <v>9</v>
       </c>
       <c r="K108" s="2">
-        <v>34040736</v>
+        <v>0</v>
       </c>
       <c r="L108" s="2">
-        <v>0</v>
+        <v>869498</v>
       </c>
       <c r="M108" s="2">
         <v>0</v>
@@ -9568,16 +9575,16 @@
         <v>0</v>
       </c>
       <c r="Q108" s="2">
-        <v>34040736</v>
+        <v>869498</v>
       </c>
       <c r="R108" s="2">
         <v>0</v>
       </c>
       <c r="S108" s="2">
-        <v>34040736</v>
+        <v>0</v>
       </c>
       <c r="T108" s="2">
-        <v>0</v>
+        <v>869498</v>
       </c>
       <c r="U108" s="2">
         <v>0</v>
@@ -9592,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="Y108" s="2">
-        <v>34040736</v>
+        <v>869498</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
@@ -9603,31 +9610,31 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="F109" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G109" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H109" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I109" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J109" t="s">
         <v>9</v>
       </c>
       <c r="K109" s="2">
-        <v>6963408</v>
+        <v>3240000</v>
       </c>
       <c r="L109" s="2">
         <v>0</v>
@@ -9645,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="Q109" s="2">
-        <v>6963408</v>
+        <v>3240000</v>
       </c>
       <c r="R109" s="2">
         <v>0</v>
       </c>
       <c r="S109" s="2">
-        <v>6963408</v>
+        <v>3240000</v>
       </c>
       <c r="T109" s="2">
         <v>0</v>
@@ -9669,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="2">
-        <v>6963408</v>
+        <v>3240000</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
@@ -9689,22 +9696,22 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J110" t="s">
         <v>9</v>
       </c>
       <c r="K110" s="2">
-        <v>7665840</v>
+        <v>34040736</v>
       </c>
       <c r="L110" s="2">
         <v>0</v>
@@ -9722,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="Q110" s="2">
-        <v>7665840</v>
+        <v>34040736</v>
       </c>
       <c r="R110" s="2">
         <v>0</v>
       </c>
       <c r="S110" s="2">
-        <v>7665840</v>
+        <v>34040736</v>
       </c>
       <c r="T110" s="2">
         <v>0</v>
@@ -9746,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="2">
-        <v>7665840</v>
+        <v>34040736</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
@@ -9772,16 +9779,16 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I111" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J111" t="s">
         <v>9</v>
       </c>
       <c r="K111" s="2">
-        <v>0</v>
+        <v>6963408</v>
       </c>
       <c r="L111" s="2">
         <v>0</v>
@@ -9799,13 +9806,13 @@
         <v>0</v>
       </c>
       <c r="Q111" s="2">
-        <v>0</v>
+        <v>6963408</v>
       </c>
       <c r="R111" s="2">
-        <v>46449288</v>
+        <v>0</v>
       </c>
       <c r="S111" s="2">
-        <v>0</v>
+        <v>6963408</v>
       </c>
       <c r="T111" s="2">
         <v>0</v>
@@ -9823,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Y111" s="2">
-        <v>46449288</v>
+        <v>6963408</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
@@ -9849,16 +9856,16 @@
         <v>44</v>
       </c>
       <c r="H112" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I112" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J112" t="s">
         <v>9</v>
       </c>
       <c r="K112" s="2">
-        <v>0</v>
+        <v>7665840</v>
       </c>
       <c r="L112" s="2">
         <v>0</v>
@@ -9876,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="Q112" s="2">
-        <v>0</v>
+        <v>7665840</v>
       </c>
       <c r="R112" s="2">
-        <v>25040880</v>
+        <v>0</v>
       </c>
       <c r="S112" s="2">
-        <v>0</v>
+        <v>7665840</v>
       </c>
       <c r="T112" s="2">
         <v>0</v>
@@ -9900,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="2">
-        <v>25040880</v>
+        <v>7665840</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
@@ -9926,62 +9933,216 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
+        <v>264</v>
+      </c>
+      <c r="I113" t="s">
+        <v>265</v>
+      </c>
+      <c r="J113" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="2">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
+        <v>0</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>0</v>
+      </c>
+      <c r="R113" s="2">
+        <v>46449288</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
+      <c r="T113" s="2">
+        <v>0</v>
+      </c>
+      <c r="U113" s="2">
+        <v>0</v>
+      </c>
+      <c r="V113" s="2">
+        <v>0</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+      <c r="X113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="2">
+        <v>46449288</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114" t="s">
         <v>266</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I114" t="s">
         <v>267</v>
       </c>
-      <c r="J113" t="s">
-        <v>9</v>
-      </c>
-      <c r="K113" s="2">
+      <c r="J114" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2">
+        <v>0</v>
+      </c>
+      <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
+        <v>0</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>0</v>
+      </c>
+      <c r="R114" s="2">
+        <v>25040880</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0</v>
+      </c>
+      <c r="T114" s="2">
+        <v>0</v>
+      </c>
+      <c r="U114" s="2">
+        <v>0</v>
+      </c>
+      <c r="V114" s="2">
+        <v>0</v>
+      </c>
+      <c r="W114" s="2">
+        <v>0</v>
+      </c>
+      <c r="X114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="2">
+        <v>25040880</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" t="s">
+        <v>268</v>
+      </c>
+      <c r="I115" t="s">
+        <v>269</v>
+      </c>
+      <c r="J115" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="2">
         <v>8884080</v>
       </c>
-      <c r="L113" s="2">
-        <v>0</v>
-      </c>
-      <c r="M113" s="2">
-        <v>0</v>
-      </c>
-      <c r="N113" s="2">
-        <v>0</v>
-      </c>
-      <c r="O113" s="2">
-        <v>0</v>
-      </c>
-      <c r="P113" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="2">
+      <c r="L115" s="2">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0</v>
+      </c>
+      <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
+        <v>0</v>
+      </c>
+      <c r="P115" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="2">
         <v>8884080</v>
       </c>
-      <c r="R113" s="2">
-        <v>0</v>
-      </c>
-      <c r="S113" s="2">
+      <c r="R115" s="2">
+        <v>0</v>
+      </c>
+      <c r="S115" s="2">
         <v>8884080</v>
       </c>
-      <c r="T113" s="2">
-        <v>0</v>
-      </c>
-      <c r="U113" s="2">
-        <v>0</v>
-      </c>
-      <c r="V113" s="2">
-        <v>0</v>
-      </c>
-      <c r="W113" s="2">
-        <v>0</v>
-      </c>
-      <c r="X113" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="2">
+      <c r="T115" s="2">
+        <v>0</v>
+      </c>
+      <c r="U115" s="2">
+        <v>0</v>
+      </c>
+      <c r="V115" s="2">
+        <v>0</v>
+      </c>
+      <c r="W115" s="2">
+        <v>0</v>
+      </c>
+      <c r="X115" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="2">
         <v>8884080</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y113"/>
+  <autoFilter ref="A1:Y115"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
